--- a/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.30392318945017</v>
+        <v>17.3039231894502</v>
       </c>
       <c r="C2">
-        <v>17.72569807628027</v>
+        <v>17.72569807628018</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.71127664068805</v>
+        <v>11.71127664068801</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>35.30758322196943</v>
+        <v>35.30758322196962</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.15936622209322</v>
+        <v>17.15936622209316</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.47585633857588</v>
+        <v>17.47585633857586</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.04356209328322</v>
+        <v>16.04356209328311</v>
       </c>
       <c r="C3">
-        <v>16.41267644072911</v>
+        <v>16.41267644072931</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.00751602962875</v>
+        <v>11.00751602962873</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33.55471649785009</v>
+        <v>33.55471649785036</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.22618518809942</v>
+        <v>16.22618518809936</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.23357123005377</v>
+        <v>15.23357123005375</v>
       </c>
       <c r="C4">
-        <v>15.57081399820145</v>
+        <v>15.57081399820149</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.56668347267564</v>
+        <v>10.56668347267565</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>32.46271251156536</v>
+        <v>32.46271251156538</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.13236253733295</v>
+        <v>15.13236253733298</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.42424271654612</v>
+        <v>15.42424271654613</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.89417304965388</v>
+        <v>14.89417304965392</v>
       </c>
       <c r="C5">
-        <v>15.2185365890166</v>
+        <v>15.2185365890165</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -538,25 +538,25 @@
         <v>10.38491507782511</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>32.01391306656286</v>
+        <v>32.01391306656281</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.8003053919002</v>
+        <v>14.80030539190019</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.08849935715191</v>
+        <v>15.08849935715194</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.83724676205395</v>
+        <v>14.83724676205384</v>
       </c>
       <c r="C6">
         <v>15.15947820119358</v>
@@ -573,28 +573,28 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.35460714245596</v>
+        <v>10.35460714245595</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.93916725272121</v>
+        <v>31.93916725272108</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.74461696926596</v>
+        <v>14.7446169692659</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.0322027130843</v>
+        <v>15.03220271308422</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.2290320242252</v>
+        <v>15.22903202422533</v>
       </c>
       <c r="C7">
-        <v>15.56610066312995</v>
+        <v>15.5661006631299</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.5642405610212</v>
+        <v>10.56424056102119</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>32.45667494937695</v>
+        <v>32.45667494937668</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.12792107096582</v>
+        <v>15.12792107096589</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.41975127781049</v>
+        <v>15.4197512778105</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.87669931498885</v>
+        <v>16.87669931498888</v>
       </c>
       <c r="C8">
-        <v>17.28021415098224</v>
+        <v>17.28021415098228</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.47045455726098</v>
+        <v>11.47045455726096</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.70652553508691</v>
+        <v>34.70652553508666</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.74088760378108</v>
+        <v>16.74088760378106</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.05201023583016</v>
+        <v>17.05201023583021</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.83302000530456</v>
+        <v>19.8330200053046</v>
       </c>
       <c r="C9">
-        <v>20.3712283082314</v>
+        <v>20.37122830823133</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.17813295006375</v>
+        <v>13.17813295006373</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38.9921293436081</v>
+        <v>38.99212934360809</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.98998913214339</v>
+        <v>19.98998913214341</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.85634133973634</v>
+        <v>21.85634133973625</v>
       </c>
       <c r="C10">
-        <v>22.49776572389132</v>
+        <v>22.49776572389145</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.51928343739024</v>
+        <v>14.51928343739029</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.07049227268974</v>
+        <v>42.07049227268966</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.62503810226456</v>
+        <v>21.62503810226458</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.00744679701845</v>
+        <v>22.00744679701846</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.74950406206993</v>
+        <v>22.74950406206982</v>
       </c>
       <c r="C11">
-        <v>23.43933334182422</v>
+        <v>23.43933334182421</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.13198522289576</v>
+        <v>15.1319852228958</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43.45981191521464</v>
+        <v>43.45981191521437</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.50259108865027</v>
+        <v>22.50259108865014</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.8997507634441</v>
+        <v>22.89975076344409</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.0842988913136</v>
+        <v>23.08429889131376</v>
       </c>
       <c r="C12">
-        <v>23.79272485689025</v>
+        <v>23.79272485689036</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.36206973973258</v>
+        <v>15.36206973973262</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43.98486847321993</v>
+        <v>43.98486847322024</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.83165790771962</v>
+        <v>22.83165790771974</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.2344993345835</v>
+        <v>23.2344993345836</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.01233847365056</v>
+        <v>23.01233847365065</v>
       </c>
       <c r="C13">
-        <v>23.71674636971429</v>
+        <v>23.71674636971435</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.31259633331381</v>
+        <v>15.3125963333138</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43.87182425396222</v>
+        <v>43.87182425396219</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.76092294397863</v>
+        <v>22.76092294397865</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.16253611514459</v>
+        <v>23.16253611514461</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.77711338367687</v>
+        <v>22.77711338367688</v>
       </c>
       <c r="C14">
         <v>23.46846689473229</v>
@@ -877,22 +877,22 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.150950813446</v>
+        <v>15.15095081344599</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43.50302591660013</v>
+        <v>43.50302591660007</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.52972548277022</v>
+        <v>22.52972548277024</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.63260104137314</v>
+        <v>22.63260104137327</v>
       </c>
       <c r="C15">
-        <v>23.31599506884542</v>
+        <v>23.31599506884559</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.05169857779788</v>
+        <v>15.05169857779789</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.2770087988085</v>
+        <v>43.27700879880879</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.38770407885965</v>
+        <v>22.38770407885979</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.78289941355846</v>
+        <v>22.78289941355853</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.79746288976598</v>
+        <v>21.79746288976604</v>
       </c>
       <c r="C16">
-        <v>22.43575776789361</v>
+        <v>22.43575776789384</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.47895018662775</v>
+        <v>14.4789501866278</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>41.9795168497056</v>
+        <v>41.97951684970563</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.56720530148597</v>
+        <v>21.56720530148604</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.94866235597739</v>
+        <v>21.94866235597747</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.27847764782541</v>
+        <v>21.27847764782554</v>
       </c>
       <c r="C17">
-        <v>21.88951460976274</v>
+        <v>21.88951460976268</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.12373540911375</v>
+        <v>14.12373540911377</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.18104833440947</v>
+        <v>41.18104833440966</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.05752506909803</v>
+        <v>21.05752506909808</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.43070494419106</v>
+        <v>21.4307049441911</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.97737177818788</v>
+        <v>20.97737177818798</v>
       </c>
       <c r="C18">
-        <v>21.57286311154085</v>
+        <v>21.57286311154079</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.91789588681138</v>
+        <v>13.91789588681143</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.720708699875</v>
+        <v>40.72070869987517</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.76188995725861</v>
+        <v>20.76188995725867</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.1303590783631</v>
+        <v>21.13035907836316</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.8749623447785</v>
+        <v>20.87496234477851</v>
       </c>
       <c r="C19">
-        <v>21.46521137957937</v>
+        <v>21.4652113795795</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.84792936134513</v>
+        <v>13.84792936134511</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.56464623108368</v>
+        <v>40.56464623108377</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.3339902152339</v>
+        <v>21.33399021523392</v>
       </c>
       <c r="C20">
-        <v>21.94791474725466</v>
+        <v>21.94791474725461</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.16170446655393</v>
+        <v>14.16170446655389</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.26615527158268</v>
+        <v>41.26615527158283</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.11203480404087</v>
+        <v>21.1120348040409</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.48609050486905</v>
+        <v>21.48609050486906</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.84629334307101</v>
+        <v>22.8462933430709</v>
       </c>
       <c r="C21">
-        <v>23.54147347070006</v>
+        <v>23.54147347069996</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.61137419056453</v>
+        <v>43.61137419056429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.5977174452757</v>
+        <v>22.59771744527558</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.99651116098535</v>
+        <v>22.99651116098526</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.81499191841527</v>
+        <v>23.81499191841533</v>
       </c>
       <c r="C22">
-        <v>24.56486992584953</v>
+        <v>24.56486992584956</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.8650283916558</v>
+        <v>15.86502839165577</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.1383842274976</v>
+        <v>45.13838422749781</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.55008647220253</v>
+        <v>23.55008647220259</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.29959406127999</v>
+        <v>23.29959406128013</v>
       </c>
       <c r="C23">
-        <v>24.02011009398187</v>
+        <v>24.0201100939819</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.51015026052032</v>
+        <v>15.5101502605203</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.04330547897947</v>
+        <v>23.04330547897957</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.44984467115514</v>
+        <v>23.44984467115519</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.30890153633121</v>
+        <v>21.30890153633123</v>
       </c>
       <c r="C24">
-        <v>21.92152021170919</v>
+        <v>21.92152021170918</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.14454373378778</v>
+        <v>14.14454373378781</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.22768247988933</v>
+        <v>41.22768247988947</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.08739912829004</v>
+        <v>21.08739912829011</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.46105872028922</v>
+        <v>21.46105872028926</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.06087432483546</v>
+        <v>19.06087432483545</v>
       </c>
       <c r="C25">
-        <v>19.56204180942201</v>
+        <v>19.56204180942213</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.72340278674167</v>
+        <v>12.72340278674169</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.84603878976757</v>
+        <v>37.84603878976762</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.88143772129392</v>
+        <v>18.88143772129389</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.3039231894502</v>
+        <v>17.30392318945017</v>
       </c>
       <c r="C2">
-        <v>17.72569807628018</v>
+        <v>17.72569807628027</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.71127664068801</v>
+        <v>11.71127664068805</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>35.30758322196962</v>
+        <v>35.30758322196943</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.15936622209316</v>
+        <v>17.15936622209322</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.47585633857586</v>
+        <v>17.47585633857588</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.04356209328311</v>
+        <v>16.04356209328322</v>
       </c>
       <c r="C3">
-        <v>16.41267644072931</v>
+        <v>16.41267644072911</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.00751602962873</v>
+        <v>11.00751602962875</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33.55471649785036</v>
+        <v>33.55471649785009</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.22618518809936</v>
+        <v>16.22618518809942</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.23357123005375</v>
+        <v>15.23357123005377</v>
       </c>
       <c r="C4">
-        <v>15.57081399820149</v>
+        <v>15.57081399820145</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.56668347267565</v>
+        <v>10.56668347267564</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>32.46271251156538</v>
+        <v>32.46271251156536</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.13236253733298</v>
+        <v>15.13236253733295</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.42424271654613</v>
+        <v>15.42424271654612</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.89417304965392</v>
+        <v>14.89417304965388</v>
       </c>
       <c r="C5">
-        <v>15.2185365890165</v>
+        <v>15.2185365890166</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -538,25 +538,25 @@
         <v>10.38491507782511</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>32.01391306656281</v>
+        <v>32.01391306656286</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.80030539190019</v>
+        <v>14.8003053919002</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.08849935715194</v>
+        <v>15.08849935715191</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.83724676205384</v>
+        <v>14.83724676205395</v>
       </c>
       <c r="C6">
         <v>15.15947820119358</v>
@@ -573,28 +573,28 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.35460714245595</v>
+        <v>10.35460714245596</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.93916725272108</v>
+        <v>31.93916725272121</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.7446169692659</v>
+        <v>14.74461696926596</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.03220271308422</v>
+        <v>15.0322027130843</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.22903202422533</v>
+        <v>15.2290320242252</v>
       </c>
       <c r="C7">
-        <v>15.5661006631299</v>
+        <v>15.56610066312995</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.56424056102119</v>
+        <v>10.5642405610212</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>32.45667494937668</v>
+        <v>32.45667494937695</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.12792107096589</v>
+        <v>15.12792107096582</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.4197512778105</v>
+        <v>15.41975127781049</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.87669931498888</v>
+        <v>16.87669931498885</v>
       </c>
       <c r="C8">
-        <v>17.28021415098228</v>
+        <v>17.28021415098224</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.47045455726096</v>
+        <v>11.47045455726098</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.70652553508666</v>
+        <v>34.70652553508691</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.74088760378106</v>
+        <v>16.74088760378108</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.05201023583021</v>
+        <v>17.05201023583016</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.8330200053046</v>
+        <v>19.83302000530456</v>
       </c>
       <c r="C9">
-        <v>20.37122830823133</v>
+        <v>20.3712283082314</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.17813295006373</v>
+        <v>13.17813295006375</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38.99212934360809</v>
+        <v>38.9921293436081</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.98998913214341</v>
+        <v>19.98998913214339</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.85634133973625</v>
+        <v>21.85634133973634</v>
       </c>
       <c r="C10">
-        <v>22.49776572389145</v>
+        <v>22.49776572389132</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.51928343739029</v>
+        <v>14.51928343739024</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.07049227268966</v>
+        <v>42.07049227268974</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.62503810226458</v>
+        <v>21.62503810226456</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.00744679701846</v>
+        <v>22.00744679701845</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.74950406206982</v>
+        <v>22.74950406206993</v>
       </c>
       <c r="C11">
-        <v>23.43933334182421</v>
+        <v>23.43933334182422</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.1319852228958</v>
+        <v>15.13198522289576</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43.45981191521437</v>
+        <v>43.45981191521464</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.50259108865014</v>
+        <v>22.50259108865027</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.89975076344409</v>
+        <v>22.8997507634441</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.08429889131376</v>
+        <v>23.0842988913136</v>
       </c>
       <c r="C12">
-        <v>23.79272485689036</v>
+        <v>23.79272485689025</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.36206973973262</v>
+        <v>15.36206973973258</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43.98486847322024</v>
+        <v>43.98486847321993</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.83165790771974</v>
+        <v>22.83165790771962</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.2344993345836</v>
+        <v>23.2344993345835</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.01233847365065</v>
+        <v>23.01233847365056</v>
       </c>
       <c r="C13">
-        <v>23.71674636971435</v>
+        <v>23.71674636971429</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.3125963333138</v>
+        <v>15.31259633331381</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43.87182425396219</v>
+        <v>43.87182425396222</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.76092294397865</v>
+        <v>22.76092294397863</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.16253611514461</v>
+        <v>23.16253611514459</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.77711338367688</v>
+        <v>22.77711338367687</v>
       </c>
       <c r="C14">
         <v>23.46846689473229</v>
@@ -877,22 +877,22 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.15095081344599</v>
+        <v>15.150950813446</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43.50302591660007</v>
+        <v>43.50302591660013</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.52972548277024</v>
+        <v>22.52972548277022</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.63260104137327</v>
+        <v>22.63260104137314</v>
       </c>
       <c r="C15">
-        <v>23.31599506884559</v>
+        <v>23.31599506884542</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.05169857779789</v>
+        <v>15.05169857779788</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.27700879880879</v>
+        <v>43.2770087988085</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.38770407885979</v>
+        <v>22.38770407885965</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.78289941355853</v>
+        <v>22.78289941355846</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.79746288976604</v>
+        <v>21.79746288976598</v>
       </c>
       <c r="C16">
-        <v>22.43575776789384</v>
+        <v>22.43575776789361</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.4789501866278</v>
+        <v>14.47895018662775</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>41.97951684970563</v>
+        <v>41.9795168497056</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.56720530148604</v>
+        <v>21.56720530148597</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.94866235597747</v>
+        <v>21.94866235597739</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.27847764782554</v>
+        <v>21.27847764782541</v>
       </c>
       <c r="C17">
-        <v>21.88951460976268</v>
+        <v>21.88951460976274</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.12373540911377</v>
+        <v>14.12373540911375</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.18104833440966</v>
+        <v>41.18104833440947</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.05752506909808</v>
+        <v>21.05752506909803</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.4307049441911</v>
+        <v>21.43070494419106</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.97737177818798</v>
+        <v>20.97737177818788</v>
       </c>
       <c r="C18">
-        <v>21.57286311154079</v>
+        <v>21.57286311154085</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.91789588681143</v>
+        <v>13.91789588681138</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.72070869987517</v>
+        <v>40.720708699875</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.76188995725867</v>
+        <v>20.76188995725861</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.13035907836316</v>
+        <v>21.1303590783631</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.87496234477851</v>
+        <v>20.8749623447785</v>
       </c>
       <c r="C19">
-        <v>21.4652113795795</v>
+        <v>21.46521137957937</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.84792936134511</v>
+        <v>13.84792936134513</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.56464623108377</v>
+        <v>40.56464623108368</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.33399021523392</v>
+        <v>21.3339902152339</v>
       </c>
       <c r="C20">
-        <v>21.94791474725461</v>
+        <v>21.94791474725466</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.16170446655389</v>
+        <v>14.16170446655393</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.26615527158283</v>
+        <v>41.26615527158268</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.1120348040409</v>
+        <v>21.11203480404087</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.48609050486906</v>
+        <v>21.48609050486905</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.8462933430709</v>
+        <v>22.84629334307101</v>
       </c>
       <c r="C21">
-        <v>23.54147347069996</v>
+        <v>23.54147347070006</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.61137419056429</v>
+        <v>43.61137419056453</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.59771744527558</v>
+        <v>22.5977174452757</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.99651116098526</v>
+        <v>22.99651116098535</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.81499191841533</v>
+        <v>23.81499191841527</v>
       </c>
       <c r="C22">
-        <v>24.56486992584956</v>
+        <v>24.56486992584953</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.86502839165577</v>
+        <v>15.8650283916558</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.13838422749781</v>
+        <v>45.1383842274976</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.55008647220259</v>
+        <v>23.55008647220253</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.29959406128013</v>
+        <v>23.29959406127999</v>
       </c>
       <c r="C23">
-        <v>24.0201100939819</v>
+        <v>24.02011009398187</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.5101502605203</v>
+        <v>15.51015026052032</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.04330547897957</v>
+        <v>23.04330547897947</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.44984467115519</v>
+        <v>23.44984467115514</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.30890153633123</v>
+        <v>21.30890153633121</v>
       </c>
       <c r="C24">
-        <v>21.92152021170918</v>
+        <v>21.92152021170919</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.14454373378781</v>
+        <v>14.14454373378778</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.22768247988947</v>
+        <v>41.22768247988933</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.08739912829011</v>
+        <v>21.08739912829004</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.46105872028926</v>
+        <v>21.46105872028922</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.06087432483545</v>
+        <v>19.06087432483546</v>
       </c>
       <c r="C25">
-        <v>19.56204180942213</v>
+        <v>19.56204180942201</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.72340278674169</v>
+        <v>12.72340278674167</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.84603878976762</v>
+        <v>37.84603878976757</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.88143772129389</v>
+        <v>18.88143772129392</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.30392318945017</v>
+        <v>17.16826484757783</v>
       </c>
       <c r="C2">
-        <v>17.72569807628027</v>
+        <v>17.60309035512689</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.71127664068805</v>
+        <v>11.65851031756215</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.076164099327459</v>
       </c>
       <c r="H2">
-        <v>35.30758322196943</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>35.46633476212074</v>
       </c>
       <c r="J2">
-        <v>17.15936622209322</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.00709728973379</v>
       </c>
       <c r="L2">
-        <v>17.47585633857588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>17.38272444751229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.04356209328322</v>
+        <v>15.91377336121313</v>
       </c>
       <c r="C3">
-        <v>16.41267644072911</v>
+        <v>16.30061333365651</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.00751602962875</v>
+        <v>10.95121379329977</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.088939038010611</v>
       </c>
       <c r="H3">
-        <v>33.55471649785009</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>33.74123828892093</v>
       </c>
       <c r="J3">
-        <v>15.92510266791282</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.77747940596207</v>
       </c>
       <c r="L3">
-        <v>16.22618518809942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>16.13680144583968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.23357123005377</v>
+        <v>15.10753070475812</v>
       </c>
       <c r="C4">
-        <v>15.57081399820145</v>
+        <v>15.46576650852175</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.56668347267564</v>
+        <v>10.50772586853447</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.096899755276307</v>
       </c>
       <c r="H4">
-        <v>32.46271251156536</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>32.66754752145825</v>
       </c>
       <c r="J4">
-        <v>15.13236253733295</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.98757415311039</v>
       </c>
       <c r="L4">
-        <v>15.42424271654612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.33710976711541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.89417304965388</v>
+        <v>14.76970137150594</v>
       </c>
       <c r="C5">
-        <v>15.2185365890166</v>
+        <v>15.11649910510238</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.38491507782511</v>
+        <v>10.3247516787244</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.100177710593004</v>
       </c>
       <c r="H5">
-        <v>32.01391306656286</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>32.22653060160827</v>
       </c>
       <c r="J5">
-        <v>14.8003053919002</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.65666908869314</v>
       </c>
       <c r="L5">
-        <v>15.08849935715191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15.00227222258789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.83724676205395</v>
+        <v>14.71303824252667</v>
       </c>
       <c r="C6">
-        <v>15.15947820119358</v>
+        <v>15.05795013087188</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.35460714245596</v>
+        <v>10.29423599253126</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.100724183574396</v>
       </c>
       <c r="H6">
-        <v>31.93916725272121</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>32.15309637496532</v>
       </c>
       <c r="J6">
-        <v>14.74461696926596</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.60117179667346</v>
       </c>
       <c r="L6">
-        <v>15.0322027130843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.94612532087874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.2290320242252</v>
+        <v>15.10301248242422</v>
       </c>
       <c r="C7">
-        <v>15.56610066312995</v>
+        <v>15.46109313438176</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.5642405610212</v>
+        <v>10.50526719862941</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.096943820028494</v>
       </c>
       <c r="H7">
-        <v>32.45667494937695</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>32.66161362221296</v>
       </c>
       <c r="J7">
-        <v>15.12792107096582</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.98314823589152</v>
       </c>
       <c r="L7">
-        <v>15.41975127781049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.3326305895967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.87669931498885</v>
+        <v>16.74303799880673</v>
       </c>
       <c r="C8">
-        <v>17.28021415098224</v>
+        <v>17.16113834723104</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.47045455726098</v>
+        <v>11.41656847134193</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.080547510348697</v>
       </c>
       <c r="H8">
-        <v>34.70652553508691</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34.87459287619475</v>
       </c>
       <c r="J8">
-        <v>16.74088760378108</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.5902252036321</v>
       </c>
       <c r="L8">
-        <v>17.05201023583016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.96018228430552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.83302000530456</v>
+        <v>19.68527680067094</v>
       </c>
       <c r="C9">
-        <v>20.3712283082314</v>
+        <v>20.22826780121058</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.17813295006375</v>
+        <v>13.13089294800762</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.049090267226985</v>
       </c>
       <c r="H9">
-        <v>38.9921293436081</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>39.09761069050342</v>
       </c>
       <c r="J9">
-        <v>19.63880800841257</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.47634721780761</v>
       </c>
       <c r="L9">
-        <v>19.98998913214339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.8884182067294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.85634133973634</v>
+        <v>21.69843056888001</v>
       </c>
       <c r="C10">
-        <v>22.49776572389132</v>
+        <v>22.33875302382029</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.51928343739024</v>
+        <v>14.51033265570583</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.026029002945788</v>
       </c>
       <c r="H10">
-        <v>42.07049227268974</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>42.13525819432677</v>
       </c>
       <c r="J10">
-        <v>21.62503810226456</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.45351916467478</v>
       </c>
       <c r="L10">
-        <v>22.00744679701845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>21.89816633925522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.74950406206993</v>
+        <v>22.58690527513819</v>
       </c>
       <c r="C11">
-        <v>23.43933334182422</v>
+        <v>23.27317451892099</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.13198522289576</v>
+        <v>15.1216285552259</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.015447297968613</v>
       </c>
       <c r="H11">
-        <v>43.45981191521464</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>43.50698460942009</v>
       </c>
       <c r="J11">
-        <v>22.50259108865027</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.3267845123024</v>
       </c>
       <c r="L11">
-        <v>22.8997507634441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>22.78676073840141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.0842988913136</v>
+        <v>22.91990514455499</v>
       </c>
       <c r="C12">
-        <v>23.79272485689025</v>
+        <v>23.62386664026565</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.36206973973258</v>
+        <v>15.35114074640658</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.011416915409063</v>
       </c>
       <c r="H12">
-        <v>43.98486847321993</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>44.02548934995615</v>
       </c>
       <c r="J12">
-        <v>22.83165790771962</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.65419409635433</v>
       </c>
       <c r="L12">
-        <v>23.2344993345835</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>23.12006581355177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.01233847365056</v>
+        <v>22.84833237723031</v>
       </c>
       <c r="C13">
-        <v>23.71674636971429</v>
+        <v>23.54846949588583</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.31259633331381</v>
+        <v>15.30179249051171</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.012286150477024</v>
       </c>
       <c r="H13">
-        <v>43.87182425396222</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>43.91385169659957</v>
       </c>
       <c r="J13">
-        <v>22.76092294397863</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.58381772455549</v>
       </c>
       <c r="L13">
-        <v>23.16253611514459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>23.04841538482161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.77711338367687</v>
+        <v>22.61436738938162</v>
       </c>
       <c r="C14">
-        <v>23.46846689473229</v>
+        <v>23.302085956009</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.150950813446</v>
+        <v>15.14054790088828</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.015116248547107</v>
       </c>
       <c r="H14">
-        <v>43.50302591660013</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>43.5496575276651</v>
       </c>
       <c r="J14">
-        <v>22.52972548277022</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.35378330279027</v>
       </c>
       <c r="L14">
-        <v>22.92735056181931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>22.81424262164447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.63260104137314</v>
+        <v>22.47062397028853</v>
       </c>
       <c r="C15">
-        <v>23.31599506884542</v>
+        <v>23.15077580749793</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.05169857779788</v>
+        <v>15.04153583983412</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.016846393358993</v>
       </c>
       <c r="H15">
-        <v>43.2770087988085</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>43.32647419545864</v>
       </c>
       <c r="J15">
-        <v>22.38770407885965</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.21246958759779</v>
       </c>
       <c r="L15">
-        <v>22.78289941355846</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>22.67040645470151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.79746288976598</v>
+        <v>21.63985636888314</v>
       </c>
       <c r="C16">
-        <v>22.43575776789361</v>
+        <v>22.2772139290194</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.47895018662775</v>
+        <v>14.47008604889085</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.026717876450036</v>
       </c>
       <c r="H16">
-        <v>41.9795168497056</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>42.04544934346637</v>
       </c>
       <c r="J16">
-        <v>21.56720530148597</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.39596245091643</v>
       </c>
       <c r="L16">
-        <v>21.94866235597739</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>21.83961948905326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.27847764782541</v>
+        <v>21.12352935523669</v>
       </c>
       <c r="C17">
-        <v>21.88951460976274</v>
+        <v>21.73509536870025</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.12373540911375</v>
+        <v>14.11560348472187</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.032743664620467</v>
       </c>
       <c r="H17">
-        <v>41.18104833440947</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>41.25730566734293</v>
       </c>
       <c r="J17">
-        <v>21.05752506909803</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.88868216686829</v>
       </c>
       <c r="L17">
-        <v>21.43070494419106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>21.32372069304284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.97737177818788</v>
+        <v>20.82394727991198</v>
       </c>
       <c r="C18">
-        <v>21.57286311154085</v>
+        <v>21.42083196721159</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.91789588681138</v>
+        <v>13.91016314836867</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.036201678599965</v>
       </c>
       <c r="H18">
-        <v>40.720708699875</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>40.80299364320855</v>
       </c>
       <c r="J18">
-        <v>20.76188995725861</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.59441242980283</v>
       </c>
       <c r="L18">
-        <v>21.1303590783631</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>21.02454054869136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.8749623447785</v>
+        <v>20.72205318140891</v>
       </c>
       <c r="C19">
-        <v>21.46521137957937</v>
+        <v>21.31399195141837</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.84792936134513</v>
+        <v>13.84032815030992</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.037371436119912</v>
       </c>
       <c r="H19">
-        <v>40.56464623108368</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>40.64898793986896</v>
       </c>
       <c r="J19">
-        <v>20.66135319982803</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.494335636437</v>
       </c>
       <c r="L19">
-        <v>21.02823547404671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>20.92280873921321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.3339902152339</v>
+        <v>21.1787595524956</v>
       </c>
       <c r="C20">
-        <v>21.94791474725466</v>
+        <v>21.79305491390978</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.16170446655393</v>
+        <v>14.15349690499844</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.032103091122413</v>
       </c>
       <c r="H20">
-        <v>41.26615527158268</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>41.34130444521917</v>
       </c>
       <c r="J20">
-        <v>21.11203480404087</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.94293803790937</v>
       </c>
       <c r="L20">
-        <v>21.48609050486905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>21.37888907005165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.84629334307101</v>
+        <v>22.68317785864354</v>
       </c>
       <c r="C21">
-        <v>23.54147347070006</v>
+        <v>23.37453560608824</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.19847922416495</v>
+        <v>15.18795968862942</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.014285703789664</v>
       </c>
       <c r="H21">
-        <v>43.61137419056453</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>43.65665066021569</v>
       </c>
       <c r="J21">
-        <v>22.5977174452757</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.42143465435954</v>
       </c>
       <c r="L21">
-        <v>22.99651116098535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>22.88310688267353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.81499191841527</v>
+        <v>23.64660144622122</v>
       </c>
       <c r="C22">
-        <v>24.56486992584953</v>
+        <v>24.39006804604908</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.8650283916558</v>
+        <v>15.85276075181305</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.002498912493825</v>
       </c>
       <c r="H22">
-        <v>45.1383842274976</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>45.16476578886166</v>
       </c>
       <c r="J22">
-        <v>23.55008647220253</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.36890475835364</v>
       </c>
       <c r="L22">
-        <v>23.96561814803161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>23.84792734234969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.29959406127999</v>
+        <v>23.13403431444274</v>
       </c>
       <c r="C23">
-        <v>24.02011009398187</v>
+        <v>23.84950857185335</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.51015026052032</v>
+        <v>15.49883976632281</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.008806632403571</v>
       </c>
       <c r="H23">
-        <v>44.32368728585575</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>44.36010491942567</v>
       </c>
       <c r="J23">
-        <v>23.04330547897947</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.86476086241178</v>
       </c>
       <c r="L23">
-        <v>23.44984467115514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>23.33446691254873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.30890153633121</v>
+        <v>21.15379854625828</v>
       </c>
       <c r="C24">
-        <v>21.92152021170919</v>
+        <v>21.7668595166388</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.14454373378778</v>
+        <v>14.13637043522285</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.032392713254871</v>
       </c>
       <c r="H24">
-        <v>41.22768247988933</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>41.30333236497788</v>
       </c>
       <c r="J24">
-        <v>21.08739912829004</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.91841717817119</v>
       </c>
       <c r="L24">
-        <v>21.46105872028922</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>21.35395552899046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.06087432483546</v>
+        <v>18.91687949432497</v>
       </c>
       <c r="C25">
-        <v>19.56204180942201</v>
+        <v>19.42522573187084</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.72340278674167</v>
+        <v>12.67443652809716</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.057561130493886</v>
       </c>
       <c r="H25">
-        <v>37.84603878976757</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>37.96746609121676</v>
       </c>
       <c r="J25">
-        <v>18.88143772129392</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.72221509967363</v>
       </c>
       <c r="L25">
-        <v>19.22150829671311</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>19.12264777848405</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.16826484757783</v>
+        <v>17.59930770124897</v>
       </c>
       <c r="C2">
-        <v>17.60309035512689</v>
+        <v>11.3457246942247</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.65851031756215</v>
+        <v>12.5044746361342</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.076164099327459</v>
+        <v>2.079450969097045</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.46633476212074</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.00709728973379</v>
+        <v>15.35011894008038</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.38272444751229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.62340803489893</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>34.95624200140833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.91377336121313</v>
+        <v>16.33043344559805</v>
       </c>
       <c r="C3">
-        <v>16.30061333365651</v>
+        <v>10.56609669486901</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.95121379329977</v>
+        <v>11.75066059623696</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.088939038010611</v>
+        <v>2.090724689591671</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.74123828892093</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.77747940596207</v>
+        <v>14.284316860517</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.13680144583968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.45891969575089</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>33.26160994806983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.10753070475812</v>
+        <v>15.51296822466294</v>
       </c>
       <c r="C4">
-        <v>15.46576650852175</v>
+        <v>10.06525392633429</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.50772586853447</v>
+        <v>11.27743063326596</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.096899755276307</v>
+        <v>2.09776846465462</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.66754752145825</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.98757415311039</v>
+        <v>13.59824351283345</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.33710976711541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.71028327770389</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>32.21095464408462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.76970137150594</v>
+        <v>15.17000569961661</v>
       </c>
       <c r="C5">
-        <v>15.11649910510238</v>
+        <v>9.855466855220184</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.3247516787244</v>
+        <v>11.08206709863783</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.100177710593004</v>
+        <v>2.100672854915792</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.22653060160827</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.65666908869314</v>
+        <v>13.31054479275234</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.00227222258789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.3965726614352</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>31.78048194930422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.71303824252667</v>
+        <v>15.11245750197146</v>
       </c>
       <c r="C6">
-        <v>15.05795013087188</v>
+        <v>9.820284990658614</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.29423599253126</v>
+        <v>11.04947872584437</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.100724183574396</v>
+        <v>2.101157273648972</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.15309637496532</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.60117179667346</v>
+        <v>13.2622780494472</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.94612532087874</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.34395485756231</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>31.70887038359761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.10301248242422</v>
+        <v>15.50838299048272</v>
       </c>
       <c r="C7">
-        <v>15.46109313438176</v>
+        <v>10.06244785025632</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.50526719862941</v>
+        <v>11.27480592969718</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.096943820028494</v>
+        <v>2.097807492355313</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.66161362221296</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.98314823589152</v>
+        <v>13.59439657297523</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.3326305895967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.70608765213733</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>32.20515817572635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.74303799880673</v>
+        <v>17.16964478474033</v>
       </c>
       <c r="C8">
-        <v>17.16113834723104</v>
+        <v>11.08142879758785</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.41656847134193</v>
+        <v>12.24675497996711</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.080547510348697</v>
+        <v>2.083315043428112</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.87459287619475</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.5902252036321</v>
+        <v>14.98910444711933</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.96018228430552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.22876127944685</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>34.37414780021986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.68527680067094</v>
+        <v>20.13233070470743</v>
       </c>
       <c r="C9">
-        <v>20.22826780121058</v>
+        <v>12.91015414229384</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.13089294800762</v>
+        <v>14.06894720097314</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>2.049090267226985</v>
+        <v>2.055688847732979</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>39.09761069050342</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.47634721780761</v>
+        <v>17.48072671924076</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.8884182067294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>18.95683811141785</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>38.54198732423465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.69843056888001</v>
+        <v>22.14377028292176</v>
       </c>
       <c r="C10">
-        <v>22.33875302382029</v>
+        <v>14.16044304387169</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.51033265570583</v>
+        <v>15.48406277008615</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>2.026029002945788</v>
+        <v>2.035602687239609</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.13525819432677</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.45351916467478</v>
+        <v>19.17534991993978</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.89816633925522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20.81821005126814</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>41.55308115158683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.58690527513819</v>
+        <v>23.02670232532393</v>
       </c>
       <c r="C11">
-        <v>23.27317451892099</v>
+        <v>14.71165437020051</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.1216285552259</v>
+        <v>16.12792268861961</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>2.015447297968613</v>
+        <v>2.026438643650728</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>43.50698460942009</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.3267845123024</v>
+        <v>19.91998964194807</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.78676073840141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21.63769522413669</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>42.91446987952413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.91990514455499</v>
+        <v>23.35679496736556</v>
       </c>
       <c r="C12">
-        <v>23.62386664026565</v>
+        <v>14.91812386078619</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.35114074640658</v>
+        <v>16.3693040066028</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>2.011416915409063</v>
+        <v>2.022957498314098</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.02548934995615</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.65419409635433</v>
+        <v>20.19850513758523</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.12006581355177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21.94445766986665</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>43.42917732656217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.84833237723031</v>
+        <v>23.2858865674911</v>
       </c>
       <c r="C13">
-        <v>23.54846949588583</v>
+        <v>14.87375296802197</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.30179249051171</v>
+        <v>16.31742110925524</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.012286150477024</v>
+        <v>2.02370783560729</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>43.91385169659957</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.58381772455549</v>
+        <v>20.13867041608312</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.04841538482161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21.87854282405932</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>43.31835469663082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.61436738938162</v>
+        <v>23.05394227549062</v>
       </c>
       <c r="C14">
-        <v>23.302085956009</v>
+        <v>14.72868443373797</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.14054790088828</v>
+        <v>16.14782814314417</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>2.015116248547107</v>
+        <v>2.02615251109048</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>43.5496575276651</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.35378330279027</v>
+        <v>19.94297074086783</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.81424262164447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21.6630018142108</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>42.95682890374074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.47062397028853</v>
+        <v>22.91132714687171</v>
       </c>
       <c r="C15">
-        <v>23.15077580749793</v>
+        <v>14.63953961366272</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.04153583983412</v>
+        <v>16.04364040098448</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>2.016846393358993</v>
+        <v>2.02764829436984</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.32647419545864</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.21246958759779</v>
+        <v>19.82265803623975</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.67040645470151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.53052491173555</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>42.73529088493085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.63985636888314</v>
+        <v>22.08545257051691</v>
       </c>
       <c r="C16">
-        <v>22.2772139290194</v>
+        <v>14.12408836526869</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.47008604889085</v>
+        <v>15.44162664485571</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.026717876450036</v>
+        <v>2.036200460493117</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.04544934346637</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.39596245091643</v>
+        <v>19.12618331877824</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.83961948905326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20.76413588417281</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>41.4639721701713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.12352935523669</v>
+        <v>21.57082834644488</v>
       </c>
       <c r="C17">
-        <v>21.73509536870025</v>
+        <v>13.80355425147956</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.11560348472187</v>
+        <v>15.06763343835072</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>2.032743664620467</v>
+        <v>2.041435384012955</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.25730566734293</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.88868216686829</v>
+        <v>18.69240267537028</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.32372069304284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.28723949241591</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>40.68214235635578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.82394727991198</v>
+        <v>21.27178624513911</v>
       </c>
       <c r="C18">
-        <v>21.42083196721159</v>
+        <v>13.6175216620737</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.91016314836867</v>
+        <v>14.85070812067762</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>2.036201678599965</v>
+        <v>2.044444337657102</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>40.80299364320855</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.59441242980283</v>
+        <v>18.44041138884395</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.02454054869136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20.0103507481844</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>40.23163509858904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.72205318140891</v>
+        <v>21.17000280381744</v>
       </c>
       <c r="C19">
-        <v>21.31399195141837</v>
+        <v>13.55424009362349</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.84032815030992</v>
+        <v>14.77694076376545</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>2.037371436119912</v>
+        <v>2.045462966326796</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40.64898793986896</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.494335636437</v>
+        <v>18.35465466072524</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.92280873921321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>19.91614587666651</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>40.07895100502427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.1787595524956</v>
+        <v>21.6259235601655</v>
       </c>
       <c r="C20">
-        <v>21.79305491390978</v>
+        <v>13.83784670942632</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.15349690499844</v>
+        <v>15.10763136391847</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>2.032103091122413</v>
+        <v>2.040878375999315</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.34130444521917</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.94293803790937</v>
+        <v>18.73883517585519</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.37888907005165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.3382715889343</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>40.76545196634702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.68317785864354</v>
+        <v>23.12218228970367</v>
       </c>
       <c r="C21">
-        <v>23.37453560608824</v>
+        <v>14.77135368689844</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.18795968862942</v>
+        <v>16.19770510411192</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.014285703789664</v>
+        <v>2.025434808945585</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.65665066021569</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.42143465435954</v>
+        <v>20.00054376098295</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.88310688267353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21.72640486688345</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>43.06303628642505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.64660144622122</v>
+        <v>24.07548059707824</v>
       </c>
       <c r="C22">
-        <v>24.39006804604908</v>
+        <v>15.36842087566715</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.85276075181305</v>
+        <v>16.89611983606004</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>2.002498912493825</v>
+        <v>2.015273759250256</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.16476578886166</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.36890475835364</v>
+        <v>20.80513570881434</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.84792734234969</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22.61309596612788</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>44.56014253211146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.13403431444274</v>
+        <v>23.5688051686665</v>
       </c>
       <c r="C23">
-        <v>23.84950857185335</v>
+        <v>15.05084986170131</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.49883976632281</v>
+        <v>16.52453078095759</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>2.008806632403571</v>
+        <v>2.020705744635345</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.36010491942567</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.86476086241178</v>
+        <v>20.37742499862905</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.33446691254873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>22.14159691263071</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>43.76135441410051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.15379854625828</v>
+        <v>21.60102493850157</v>
       </c>
       <c r="C24">
-        <v>21.7668595166388</v>
+        <v>13.82234856936246</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.13637043522285</v>
+        <v>15.08955427846443</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>2.032392713254871</v>
+        <v>2.041130200901971</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.30333236497788</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.91841717817119</v>
+        <v>18.71785117932268</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.35395552899046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.31520846015751</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>40.72779090471118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.91687949432497</v>
+        <v>19.36101922437436</v>
       </c>
       <c r="C25">
-        <v>19.42522573187084</v>
+        <v>12.43262559312681</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.67443652809716</v>
+        <v>13.58495421087145</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.057561130493886</v>
+        <v>2.06310359055467</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.96746609121676</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.72221509967363</v>
+        <v>16.83154339131377</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.12264777848405</v>
+        <v>18.24506300885184</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>37.42392312801356</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.59930770124897</v>
+        <v>13.08152256365117</v>
       </c>
       <c r="C2">
-        <v>11.3457246942247</v>
+        <v>7.821998250903323</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.5044746361342</v>
+        <v>5.701404933645602</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.079450969097045</v>
+        <v>2.166537068521396</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>39.10489498678807</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.35011894008038</v>
+        <v>11.70835498927049</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.442373917053326</v>
       </c>
       <c r="M2">
-        <v>16.62340803489893</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>34.95624200140833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.33043344559805</v>
+        <v>12.40045859177414</v>
       </c>
       <c r="C3">
-        <v>10.56609669486901</v>
+        <v>7.283267100584884</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.75066059623696</v>
+        <v>5.627223517746136</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.090724689591671</v>
+        <v>2.176138405620912</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>37.79883331727839</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.284316860517</v>
+        <v>11.16249654668807</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.248526376704352</v>
       </c>
       <c r="M3">
-        <v>15.45891969575089</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>33.26160994806983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.51296822466294</v>
+        <v>11.97619111535955</v>
       </c>
       <c r="C4">
-        <v>10.06525392633429</v>
+        <v>6.961414530560961</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.27743063326596</v>
+        <v>5.584723230581539</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.09776846465462</v>
+        <v>2.182168544782826</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>36.9901365333768</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.59824351283345</v>
+        <v>10.82464750257024</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.131954581450602</v>
       </c>
       <c r="M4">
-        <v>14.71028327770389</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>32.21095464408462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.17000569961661</v>
+        <v>11.80198699988567</v>
       </c>
       <c r="C5">
-        <v>9.855466855220184</v>
+        <v>6.82731051115831</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.08206709863783</v>
+        <v>5.568166895143143</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.100672854915792</v>
+        <v>2.184661872755675</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>36.65909400579697</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.31054479275234</v>
+        <v>10.68646764446408</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.085100661506742</v>
       </c>
       <c r="M5">
-        <v>14.3965726614352</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.78048194930422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.11245750197146</v>
+        <v>11.77298861252837</v>
       </c>
       <c r="C6">
-        <v>9.820284990658614</v>
+        <v>6.804866245727423</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.04947872584437</v>
+        <v>5.565463685753872</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.101157273648972</v>
+        <v>2.185078120200951</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>36.60404128202735</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.2622780494472</v>
+        <v>10.66349818205468</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.077360875231591</v>
       </c>
       <c r="M6">
-        <v>14.34395485756231</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.70887038359761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.50838299048272</v>
+        <v>11.97384672535342</v>
       </c>
       <c r="C7">
-        <v>10.06244785025632</v>
+        <v>6.959617820117693</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.27480592969718</v>
+        <v>5.584496862370028</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.097807492355313</v>
+        <v>2.182202022277585</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>36.98567771841054</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.59439657297523</v>
+        <v>10.82278575013946</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.131320015562302</v>
       </c>
       <c r="M7">
-        <v>14.70608765213733</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>32.20515817572635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.16964478474033</v>
+        <v>12.84807425240362</v>
       </c>
       <c r="C8">
-        <v>11.08142879758785</v>
+        <v>7.632000981578852</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.24675497996711</v>
+        <v>5.675192857933167</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.083315043428112</v>
+        <v>2.169820916023812</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>38.65608571332495</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.98910444711933</v>
+        <v>11.52079561700457</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.375046016384856</v>
       </c>
       <c r="M8">
-        <v>16.22876127944685</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>34.37414780021986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.13233070470743</v>
+        <v>14.50673763617008</v>
       </c>
       <c r="C9">
-        <v>12.91015414229384</v>
+        <v>8.940521142564904</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.06894720097314</v>
+        <v>5.877364080639418</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.055688847732979</v>
+        <v>2.146509231885067</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>41.87072291766112</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.48072671924076</v>
+        <v>12.86226090160909</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.871123690029087</v>
       </c>
       <c r="M9">
-        <v>18.95683811141785</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>38.54198732423465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.14377028292176</v>
+        <v>15.77834291565868</v>
       </c>
       <c r="C10">
-        <v>14.16044304387169</v>
+        <v>9.825770338027127</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.48406277008615</v>
+        <v>6.040937182828234</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.035602687239609</v>
+        <v>2.129814348828805</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>44.18866582016729</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.17534991993978</v>
+        <v>14.06293337203276</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.245236410424402</v>
       </c>
       <c r="M10">
-        <v>20.81821005126814</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>41.55308115158683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.02670232532393</v>
+        <v>16.39733848236685</v>
       </c>
       <c r="C11">
-        <v>14.71165437020051</v>
+        <v>10.21317755446954</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.12792268861961</v>
+        <v>6.118679390854144</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.026438643650728</v>
+        <v>2.122273590910071</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>45.23318922312011</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.91998964194807</v>
+        <v>14.61834885833784</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.417355376109215</v>
       </c>
       <c r="M11">
-        <v>21.63769522413669</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>42.91446987952413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.35679496736556</v>
+        <v>16.62859478621552</v>
       </c>
       <c r="C12">
-        <v>14.91812386078619</v>
+        <v>10.35779171037777</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.3693040066028</v>
+        <v>6.148604582086277</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.022957498314098</v>
+        <v>2.119422110419185</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>45.62732475589652</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.19850513758523</v>
+        <v>14.82559356691705</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.482806594748832</v>
       </c>
       <c r="M12">
-        <v>21.94445766986665</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>43.42917732656217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.2858865674911</v>
+        <v>16.57892709661636</v>
       </c>
       <c r="C13">
-        <v>14.87375296802197</v>
+        <v>10.32673745172572</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.31742110925524</v>
+        <v>6.142137909833385</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.02370783560729</v>
+        <v>2.120036111616411</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>45.5425020287065</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.13867041608312</v>
+        <v>14.7810941006803</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.468698307083471</v>
       </c>
       <c r="M13">
-        <v>21.87854282405932</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>43.31835469663082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.05394227549062</v>
+        <v>16.41642625423479</v>
       </c>
       <c r="C14">
-        <v>14.72868443373797</v>
+        <v>10.225116225491</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.14782814314417</v>
+        <v>6.121131567975886</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.02615251109048</v>
+        <v>2.122038939645103</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>45.26564276920834</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.94297074086783</v>
+        <v>14.63545980124167</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.422734597045254</v>
       </c>
       <c r="M14">
-        <v>21.6630018142108</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>42.95682890374074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.91132714687171</v>
+        <v>16.31648464250257</v>
       </c>
       <c r="C15">
-        <v>14.63953961366272</v>
+        <v>10.16260180589991</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.04364040098448</v>
+        <v>6.108328101282302</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.02764829436984</v>
+        <v>2.123266138726836</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>45.0958774514626</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.82265803623975</v>
+        <v>14.54585830854208</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.394616146981333</v>
       </c>
       <c r="M15">
-        <v>21.53052491173555</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>42.73529088493085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.08545257051691</v>
+        <v>15.73744253984076</v>
       </c>
       <c r="C16">
-        <v>14.12408836526869</v>
+        <v>9.800153779351932</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.44162664485571</v>
+        <v>6.035924116762791</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.036200460493117</v>
+        <v>2.130307931611993</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>44.12020490069336</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.12618331877824</v>
+        <v>14.02619630039298</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.234026332510815</v>
       </c>
       <c r="M16">
-        <v>20.76413588417281</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>41.4639721701713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.57082834644488</v>
+        <v>15.37647300740607</v>
       </c>
       <c r="C17">
-        <v>13.80355425147956</v>
+        <v>9.573961096491216</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.06763343835072</v>
+        <v>5.992364077944502</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.041435384012955</v>
+        <v>2.13463912866292</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>43.51912004001887</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.69240267537028</v>
+        <v>13.70175167921014</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.135998680618856</v>
       </c>
       <c r="M17">
-        <v>20.28723949241591</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>40.68214235635578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.27178624513911</v>
+        <v>15.16998735400622</v>
       </c>
       <c r="C18">
-        <v>13.6175216620737</v>
+        <v>9.44241389256174</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.85070812067762</v>
+        <v>5.967622588061879</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.044444337657102</v>
+        <v>2.137135630217723</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>43.1724534222991</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.44041138884395</v>
+        <v>13.51301678955205</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.07979745617952</v>
       </c>
       <c r="M18">
-        <v>20.0103507481844</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>40.23163509858904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.17000280381744</v>
+        <v>15.11028444275741</v>
       </c>
       <c r="C19">
-        <v>13.55424009362349</v>
+        <v>9.397622524440003</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.77694076376545</v>
+        <v>5.95929915196841</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>2.045462966326796</v>
+        <v>2.13798192094433</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>43.05491704974387</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.35465466072524</v>
+        <v>13.44874549963949</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.060800182438355</v>
       </c>
       <c r="M19">
-        <v>19.91614587666651</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>40.07895100502427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.6259235601655</v>
+        <v>15.41512067709644</v>
       </c>
       <c r="C20">
-        <v>13.83784670942632</v>
+        <v>9.598188701533591</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.10763136391847</v>
+        <v>5.996968673517824</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>2.040878375999315</v>
+        <v>2.134177541070702</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>43.58320368539638</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.73883517585519</v>
+        <v>13.73650804842169</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.146415150235551</v>
       </c>
       <c r="M20">
-        <v>20.3382715889343</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>40.76545196634702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.12218228970367</v>
+        <v>16.46424085753372</v>
       </c>
       <c r="C21">
-        <v>14.77135368689844</v>
+        <v>10.25502057896185</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.19770510411192</v>
+        <v>6.127288385492568</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.025434808945585</v>
+        <v>2.121450582474566</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>45.34700064886552</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.00054376098295</v>
+        <v>14.67831841955193</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.43622781770623</v>
       </c>
       <c r="M21">
-        <v>21.72640486688345</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>43.06303628642505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.07548059707824</v>
+        <v>17.13165502701069</v>
       </c>
       <c r="C22">
-        <v>15.36842087566715</v>
+        <v>10.67218525300201</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.89611983606004</v>
+        <v>6.215297264213753</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>2.015273759250256</v>
+        <v>2.113154290824825</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>46.49161916342499</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.80513570881434</v>
+        <v>15.27598025475315</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.627236442546494</v>
       </c>
       <c r="M22">
-        <v>22.61309596612788</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>44.56014253211146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.5688051686665</v>
+        <v>16.77706365544263</v>
       </c>
       <c r="C23">
-        <v>15.05084986170131</v>
+        <v>10.45060494196104</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.52453078095759</v>
+        <v>6.168062686089017</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.020705744635345</v>
+        <v>2.117581548317298</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>45.88143549554224</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.37742499862905</v>
+        <v>14.95857788090964</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.525144105817919</v>
       </c>
       <c r="M23">
-        <v>22.14159691263071</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>43.76135441410051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.60102493850157</v>
+        <v>15.39765507007535</v>
       </c>
       <c r="C24">
-        <v>13.82234856936246</v>
+        <v>9.587240100443864</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.08955427846443</v>
+        <v>5.994885996425025</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.041130200901971</v>
+        <v>2.134386204492159</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>43.55423488082685</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.71785117932268</v>
+        <v>13.72080158038284</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.141705377385168</v>
       </c>
       <c r="M24">
-        <v>20.31520846015751</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>40.72779090471118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.36101922437436</v>
+        <v>14.06483738933142</v>
       </c>
       <c r="C25">
-        <v>12.43262559312681</v>
+        <v>8.600278845673595</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.58495421087145</v>
+        <v>5.820047326154439</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.06310359055467</v>
+        <v>2.152727416271918</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>41.00846199679145</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.83154339131377</v>
+        <v>12.50299144488898</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.735145895944647</v>
       </c>
       <c r="M25">
-        <v>18.24506300885184</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>37.42392312801356</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.08152256365117</v>
+        <v>15.90628671274171</v>
       </c>
       <c r="C2">
-        <v>7.821998250903323</v>
+        <v>5.57907341046594</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.701404933645602</v>
+        <v>9.400280221614485</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.166537068521396</v>
+        <v>3.761747239599984</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>39.10489498678807</v>
+        <v>40.24855956482254</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.70835498927049</v>
+        <v>14.55078682272254</v>
       </c>
       <c r="L2">
-        <v>7.442373917053326</v>
+        <v>10.63593255002355</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.40045859177414</v>
+        <v>15.84328852390039</v>
       </c>
       <c r="C3">
-        <v>7.283267100584884</v>
+        <v>5.386771106319451</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.627223517746136</v>
+        <v>9.414737312516177</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.176138405620912</v>
+        <v>3.764976007618043</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>37.79883331727839</v>
+        <v>39.87451427733728</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.16249654668807</v>
+        <v>14.49746023801181</v>
       </c>
       <c r="L3">
-        <v>7.248526376704352</v>
+        <v>10.6281118936766</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.97619111535955</v>
+        <v>15.80983635688796</v>
       </c>
       <c r="C4">
-        <v>6.961414530560961</v>
+        <v>5.266436261966263</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.584723230581539</v>
+        <v>9.425189516038218</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.182168544782826</v>
+        <v>3.767059842517659</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>36.9901365333768</v>
+        <v>39.6452182689921</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.82464750257024</v>
+        <v>14.46880992292949</v>
       </c>
       <c r="L4">
-        <v>7.131954581450602</v>
+        <v>10.62525600788562</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.80198699988567</v>
+        <v>15.79753187295052</v>
       </c>
       <c r="C5">
-        <v>6.82731051115831</v>
+        <v>5.216908484901765</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.568166895143143</v>
+        <v>9.429845136378617</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.184661872755675</v>
+        <v>3.767934604275964</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.65909400579697</v>
+        <v>39.5519229702403</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.68646764446408</v>
+        <v>14.45817310154288</v>
       </c>
       <c r="L5">
-        <v>7.085100661506742</v>
+        <v>10.62458259144507</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.77298861252837</v>
+        <v>15.7955692350668</v>
       </c>
       <c r="C6">
-        <v>6.804866245727423</v>
+        <v>5.208657226698295</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.565463685753872</v>
+        <v>9.430642133385355</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.185078120200951</v>
+        <v>3.768081405679852</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.60404128202735</v>
+        <v>39.53644158840267</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.66349818205468</v>
+        <v>14.45646982912805</v>
       </c>
       <c r="L6">
-        <v>7.077360875231591</v>
+        <v>10.62450041390904</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.97384672535342</v>
+        <v>15.80966502390055</v>
       </c>
       <c r="C7">
-        <v>6.959617820117693</v>
+        <v>5.265770190550938</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.584496862370028</v>
+        <v>9.425250698829075</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.182202022277585</v>
+        <v>3.767071536155242</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>36.98567771841054</v>
+        <v>39.64395940261377</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.82278575013946</v>
+        <v>14.46866225525817</v>
       </c>
       <c r="L7">
-        <v>7.131320015562302</v>
+        <v>10.62524493926019</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.84807425240362</v>
+        <v>15.88348786457602</v>
       </c>
       <c r="C8">
-        <v>7.632000981578852</v>
+        <v>5.513281554029345</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.675192857933167</v>
+        <v>9.404938105333978</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.169820916023812</v>
+        <v>3.762839539068709</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>38.65608571332495</v>
+        <v>40.1195434711484</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.52079561700457</v>
+        <v>14.5315564507346</v>
       </c>
       <c r="L8">
-        <v>7.375046016384856</v>
+        <v>10.63283278680075</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.50673763617008</v>
+        <v>16.06909434459523</v>
       </c>
       <c r="C9">
-        <v>8.940521142564904</v>
+        <v>5.977617918691116</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.877364080639418</v>
+        <v>9.377600397148942</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.146509231885067</v>
+        <v>3.755340509134915</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.87072291766112</v>
+        <v>41.05278463250566</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.86226090160909</v>
+        <v>14.68688992500535</v>
       </c>
       <c r="L9">
-        <v>7.871123690029087</v>
+        <v>10.66309794146423</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.77834291565868</v>
+        <v>16.22935880452259</v>
       </c>
       <c r="C10">
-        <v>9.825770338027127</v>
+        <v>6.302260254761609</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.040937182828234</v>
+        <v>9.365122940448346</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.129814348828805</v>
+        <v>3.750312546282561</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>44.18866582016729</v>
+        <v>41.73569650533796</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.06293337203276</v>
+        <v>14.81979854555842</v>
       </c>
       <c r="L10">
-        <v>8.245236410424402</v>
+        <v>10.69462416785826</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.39733848236685</v>
+        <v>16.30720782239771</v>
       </c>
       <c r="C11">
-        <v>10.21317755446954</v>
+        <v>6.44571373569083</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.118679390854144</v>
+        <v>9.361095119513339</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.122273590910071</v>
+        <v>3.748128468831503</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>45.23318922312011</v>
+        <v>42.04510568065547</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.61834885833784</v>
+        <v>14.8841615708235</v>
       </c>
       <c r="L11">
-        <v>8.417355376109215</v>
+        <v>10.71095901865309</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.62859478621552</v>
+        <v>16.33737485554462</v>
       </c>
       <c r="C12">
-        <v>10.35779171037777</v>
+        <v>6.49938167459814</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.148604582086277</v>
+        <v>9.359806475029933</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.119422110419185</v>
+        <v>3.747316151728793</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>45.62732475589652</v>
+        <v>42.16203421418483</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.82559356691705</v>
+        <v>14.90907844797059</v>
       </c>
       <c r="L12">
-        <v>8.482806594748832</v>
+        <v>10.71742867276784</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.57892709661636</v>
+        <v>16.33084766818485</v>
       </c>
       <c r="C13">
-        <v>10.32673745172572</v>
+        <v>6.487853131830337</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.142137909833385</v>
+        <v>9.360073492005514</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.120036111616411</v>
+        <v>3.747490444361758</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>45.5425020287065</v>
+        <v>42.13686306941513</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.7810941006803</v>
+        <v>14.90368824190364</v>
       </c>
       <c r="L13">
-        <v>8.468698307083471</v>
+        <v>10.71602273111875</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.41642625423479</v>
+        <v>16.30967604810609</v>
       </c>
       <c r="C14">
-        <v>10.225116225491</v>
+        <v>6.450142400528443</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.121131567975886</v>
+        <v>9.360984362683416</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.122038939645103</v>
+        <v>3.748061344003401</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>45.26564276920834</v>
+        <v>42.05473056317379</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.63545980124167</v>
+        <v>14.88620069657886</v>
       </c>
       <c r="L14">
-        <v>8.422734597045254</v>
+        <v>10.71148560535267</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.31648464250257</v>
+        <v>16.29679660127366</v>
       </c>
       <c r="C15">
-        <v>10.16260180589991</v>
+        <v>6.426956922554885</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.108328101282302</v>
+        <v>9.361573096602507</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.123266138726836</v>
+        <v>3.748412954175266</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>45.0958774514626</v>
+        <v>42.00438931684424</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.54585830854208</v>
+        <v>14.87555938847082</v>
       </c>
       <c r="L15">
-        <v>8.394616146981333</v>
+        <v>10.70874338672638</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.73744253984076</v>
+        <v>16.22436868452836</v>
       </c>
       <c r="C16">
-        <v>9.800153779351932</v>
+        <v>6.292796026139897</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.035924116762791</v>
+        <v>9.36541930139756</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.130307931611993</v>
+        <v>3.750457349198439</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>44.12020490069336</v>
+        <v>41.7154457408009</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.02619630039298</v>
+        <v>14.81566935172631</v>
       </c>
       <c r="L16">
-        <v>8.234026332510815</v>
+        <v>10.6935965393285</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.37647300740607</v>
+        <v>16.18118639829079</v>
       </c>
       <c r="C17">
-        <v>9.573961096491216</v>
+        <v>6.209374687280295</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.992364077944502</v>
+        <v>9.368200708391724</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.13463912866292</v>
+        <v>3.75173787910685</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>43.51912004001887</v>
+        <v>41.53782638535344</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.70175167921014</v>
+        <v>14.77991634458027</v>
       </c>
       <c r="L17">
-        <v>8.135998680618856</v>
+        <v>10.68481320276539</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.16998735400622</v>
+        <v>16.15681594258299</v>
       </c>
       <c r="C18">
-        <v>9.44241389256174</v>
+        <v>6.160997413227346</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.967622588061879</v>
+        <v>9.369955669350972</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.137135630217723</v>
+        <v>3.752484122054359</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.1724534222991</v>
+        <v>41.43555015876117</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.51301678955205</v>
+        <v>14.7597205512252</v>
       </c>
       <c r="L18">
-        <v>8.07979745617952</v>
+        <v>10.67994906564673</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.11028444275741</v>
+        <v>16.14864540419912</v>
       </c>
       <c r="C19">
-        <v>9.397622524440003</v>
+        <v>6.14455128584455</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.95929915196841</v>
+        <v>9.37057653069434</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.13798192094433</v>
+        <v>3.752738458570976</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.05491704974387</v>
+        <v>41.40090333588621</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.44874549963949</v>
+        <v>14.75294637924523</v>
       </c>
       <c r="L19">
-        <v>8.060800182438355</v>
+        <v>10.67833448438659</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.41512067709644</v>
+        <v>16.18573507568108</v>
       </c>
       <c r="C20">
-        <v>9.598188701533591</v>
+        <v>6.218296323442988</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.996968673517824</v>
+        <v>9.367888566188633</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>2.134177541070702</v>
+        <v>3.751600559596782</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>43.58320368539638</v>
+        <v>41.55674651787275</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.73650804842169</v>
+        <v>14.78368430716847</v>
       </c>
       <c r="L20">
-        <v>8.146415150235551</v>
+        <v>10.68572878508814</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.46424085753372</v>
+        <v>16.31587620815546</v>
       </c>
       <c r="C21">
-        <v>10.25502057896185</v>
+        <v>6.461237072574042</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.127288385492568</v>
+        <v>9.360710400173888</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.121450582474566</v>
+        <v>3.747893257461301</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>45.34700064886552</v>
+        <v>42.07886179208201</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.67831841955193</v>
+        <v>14.89132259025092</v>
       </c>
       <c r="L21">
-        <v>8.43622781770623</v>
+        <v>10.71281058396129</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.13165502701069</v>
+        <v>16.40492516992808</v>
       </c>
       <c r="C22">
-        <v>10.67218525300201</v>
+        <v>6.6161784436833</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.215297264213753</v>
+        <v>9.357397917805462</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.113154290824825</v>
+        <v>3.745556228615867</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>46.49161916342499</v>
+        <v>42.4186803629344</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.27598025475315</v>
+        <v>14.96483261377907</v>
       </c>
       <c r="L22">
-        <v>8.627236442546494</v>
+        <v>10.7321640553817</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.77706365544263</v>
+        <v>16.35704074742867</v>
       </c>
       <c r="C23">
-        <v>10.45060494196104</v>
+        <v>6.533848221479742</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.168062686089017</v>
+        <v>9.359039841179024</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475857</v>
       </c>
       <c r="G23">
-        <v>2.117581548317298</v>
+        <v>3.746795713927697</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>45.88143549554224</v>
+        <v>42.23746127293469</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.95857788090964</v>
+        <v>14.92531550985955</v>
       </c>
       <c r="L23">
-        <v>8.525144105817919</v>
+        <v>10.72168435326223</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.39765507007535</v>
+        <v>16.1836771976545</v>
       </c>
       <c r="C24">
-        <v>9.587240100443864</v>
+        <v>6.214264147741597</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.994885996425025</v>
+        <v>9.368029200071472</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.134386204492159</v>
+        <v>3.751662610437308</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>43.55423488082685</v>
+        <v>41.54819322138109</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.72080158038284</v>
+        <v>14.78197969147306</v>
       </c>
       <c r="L24">
-        <v>8.141705377385168</v>
+        <v>10.68531427225942</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.06483738933142</v>
+        <v>16.01460658609288</v>
       </c>
       <c r="C25">
-        <v>8.600278845673595</v>
+        <v>5.854659798170069</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.820047326154439</v>
+        <v>9.383659015600575</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295691</v>
       </c>
       <c r="G25">
-        <v>2.152727416271918</v>
+        <v>3.757284189093042</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>41.00846199679145</v>
+        <v>40.8005717363847</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.50299144488898</v>
+        <v>14.64151196931344</v>
       </c>
       <c r="L25">
-        <v>7.735145895944647</v>
+        <v>10.65327137114973</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.90628671274171</v>
+        <v>13.08152256365115</v>
       </c>
       <c r="C2">
-        <v>5.57907341046594</v>
+        <v>7.821998250903311</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.400280221614485</v>
+        <v>5.7014049336456</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.761747239599984</v>
+        <v>2.166537068521525</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>40.24855956482254</v>
+        <v>39.10489498678824</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.55078682272254</v>
+        <v>11.70835498927051</v>
       </c>
       <c r="L2">
-        <v>10.63593255002355</v>
+        <v>7.442373917053324</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.84328852390039</v>
+        <v>12.4004585917742</v>
       </c>
       <c r="C3">
-        <v>5.386771106319451</v>
+        <v>7.283267100584856</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.414737312516177</v>
+        <v>5.627223517746201</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.764976007618043</v>
+        <v>2.176138405621176</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>39.87451427733728</v>
+        <v>37.79883331727865</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.49746023801181</v>
+        <v>11.1624965466881</v>
       </c>
       <c r="L3">
-        <v>10.6281118936766</v>
+        <v>7.248526376704326</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.80983635688796</v>
+        <v>11.97619111535945</v>
       </c>
       <c r="C4">
-        <v>5.266436261966263</v>
+        <v>6.961414530561036</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.425189516038218</v>
+        <v>5.584723230581337</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.767059842517659</v>
+        <v>2.182168544782829</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>39.6452182689921</v>
+        <v>36.99013653337705</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.46880992292949</v>
+        <v>10.8246475025702</v>
       </c>
       <c r="L4">
-        <v>10.62525600788562</v>
+        <v>7.131954581450585</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.79753187295052</v>
+        <v>11.8019869998857</v>
       </c>
       <c r="C5">
-        <v>5.216908484901765</v>
+        <v>6.82731051115831</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.429845136378617</v>
+        <v>5.568166895143113</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.767934604275964</v>
+        <v>2.184661872755946</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>39.5519229702403</v>
+        <v>36.65909400579704</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.45817310154288</v>
+        <v>10.6864676444641</v>
       </c>
       <c r="L5">
-        <v>10.62458259144507</v>
+        <v>7.085100661506756</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.7955692350668</v>
+        <v>11.77298861252841</v>
       </c>
       <c r="C6">
-        <v>5.208657226698295</v>
+        <v>6.804866245727441</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.430642133385355</v>
+        <v>5.565463685753942</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.768081405679852</v>
+        <v>2.18507812020068</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>39.53644158840267</v>
+        <v>36.6040412820275</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.45646982912805</v>
+        <v>10.6634981820547</v>
       </c>
       <c r="L6">
-        <v>10.62450041390904</v>
+        <v>7.077360875231596</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.80966502390055</v>
+        <v>11.97384672535347</v>
       </c>
       <c r="C7">
-        <v>5.265770190550938</v>
+        <v>6.959617820117709</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.425250698829075</v>
+        <v>5.584496862370162</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.767071536155242</v>
+        <v>2.182202022277588</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>39.64395940261377</v>
+        <v>36.98567771841054</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.46866225525817</v>
+        <v>10.82278575013948</v>
       </c>
       <c r="L7">
-        <v>10.62524493926019</v>
+        <v>7.131320015562366</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.88348786457602</v>
+        <v>12.84807425240364</v>
       </c>
       <c r="C8">
-        <v>5.513281554029345</v>
+        <v>7.632000981578781</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.404938105333978</v>
+        <v>5.675192857933162</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.762839539068709</v>
+        <v>2.169820916023684</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>40.1195434711484</v>
+        <v>38.65608571332513</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.5315564507346</v>
+        <v>11.5207956170046</v>
       </c>
       <c r="L8">
-        <v>10.63283278680075</v>
+        <v>7.375046016384861</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.06909434459523</v>
+        <v>14.50673763617009</v>
       </c>
       <c r="C9">
-        <v>5.977617918691116</v>
+        <v>8.940521142564936</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.377600397148942</v>
+        <v>5.877364080639446</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.755340509134915</v>
+        <v>2.146509231884937</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.05278463250566</v>
+        <v>41.87072291766145</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.68688992500535</v>
+        <v>12.86226090160908</v>
       </c>
       <c r="L9">
-        <v>10.66309794146423</v>
+        <v>7.871123690029068</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.22935880452259</v>
+        <v>15.77834291565869</v>
       </c>
       <c r="C10">
-        <v>6.302260254761609</v>
+        <v>9.825770338027084</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.365122940448346</v>
+        <v>6.040937182828302</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.750312546282561</v>
+        <v>2.129814348828542</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>41.73569650533796</v>
+        <v>44.1886658201674</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.81979854555842</v>
+        <v>14.06293337203276</v>
       </c>
       <c r="L10">
-        <v>10.69462416785826</v>
+        <v>8.24523641042439</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.30720782239771</v>
+        <v>16.39733848236678</v>
       </c>
       <c r="C11">
-        <v>6.44571373569083</v>
+        <v>10.21317755446965</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.361095119513339</v>
+        <v>6.118679390854193</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.748128468831503</v>
+        <v>2.122273590910335</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42.04510568065547</v>
+        <v>45.2331892231201</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.8841615708235</v>
+        <v>14.61834885833782</v>
       </c>
       <c r="L11">
-        <v>10.71095901865309</v>
+        <v>8.417355376109221</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.33737485554462</v>
+        <v>16.62859478621548</v>
       </c>
       <c r="C12">
-        <v>6.49938167459814</v>
+        <v>10.35779171037771</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.359806475029933</v>
+        <v>6.148604582086283</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.747316151728793</v>
+        <v>2.119422110419444</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>42.16203421418483</v>
+        <v>45.62732475589614</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.90907844797059</v>
+        <v>14.82559356691701</v>
       </c>
       <c r="L12">
-        <v>10.71742867276784</v>
+        <v>8.482806594748853</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.33084766818485</v>
+        <v>16.57892709661632</v>
       </c>
       <c r="C13">
-        <v>6.487853131830337</v>
+        <v>10.32673745172555</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.360073492005514</v>
+        <v>6.1421379098334</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.747490444361758</v>
+        <v>2.120036111616279</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>42.13686306941513</v>
+        <v>45.54250202870632</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.90368824190364</v>
+        <v>14.78109410068021</v>
       </c>
       <c r="L13">
-        <v>10.71602273111875</v>
+        <v>8.468698307083491</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.30967604810609</v>
+        <v>16.41642625423484</v>
       </c>
       <c r="C14">
-        <v>6.450142400528443</v>
+        <v>10.22511622549105</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.360984362683416</v>
+        <v>6.121131567975947</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.748061344003401</v>
+        <v>2.122038939644985</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>42.05473056317379</v>
+        <v>45.26564276920868</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.88620069657886</v>
+        <v>14.63545980124171</v>
       </c>
       <c r="L14">
-        <v>10.71148560535267</v>
+        <v>8.42273459704529</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.29679660127366</v>
+        <v>16.31648464250263</v>
       </c>
       <c r="C15">
-        <v>6.426956922554885</v>
+        <v>10.16260180589976</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.361573096602507</v>
+        <v>6.108328101282278</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>3.748412954175266</v>
+        <v>2.123266138726843</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>42.00438931684424</v>
+        <v>45.09587745146264</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.87555938847082</v>
+        <v>14.54585830854209</v>
       </c>
       <c r="L15">
-        <v>10.70874338672638</v>
+        <v>8.394616146981392</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.22436868452836</v>
+        <v>15.73744253984073</v>
       </c>
       <c r="C16">
-        <v>6.292796026139897</v>
+        <v>9.800153779351799</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.36541930139756</v>
+        <v>6.035924116762748</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.750457349198439</v>
+        <v>2.13030793161226</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>41.7154457408009</v>
+        <v>44.1202049006933</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.81566935172631</v>
+        <v>14.02619630039288</v>
       </c>
       <c r="L16">
-        <v>10.6935965393285</v>
+        <v>8.234026332510792</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.18118639829079</v>
+        <v>15.37647300740612</v>
       </c>
       <c r="C17">
-        <v>6.209374687280295</v>
+        <v>9.573961096491431</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.368200708391724</v>
+        <v>5.992364077944559</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.75173787910685</v>
+        <v>2.134639128662788</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.53782638535344</v>
+        <v>43.51912004001936</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.77991634458027</v>
+        <v>13.70175167921028</v>
       </c>
       <c r="L17">
-        <v>10.68481320276539</v>
+        <v>8.135998680618837</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.15681594258299</v>
+        <v>15.16998735400624</v>
       </c>
       <c r="C18">
-        <v>6.160997413227346</v>
+        <v>9.442413892561614</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.369955669350972</v>
+        <v>5.967622588061871</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>3.752484122054359</v>
+        <v>2.137135630217723</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>41.43555015876117</v>
+        <v>43.17245342229913</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.7597205512252</v>
+        <v>13.51301678955205</v>
       </c>
       <c r="L18">
-        <v>10.67994906564673</v>
+        <v>8.079797456179506</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.14864540419912</v>
+        <v>15.11028444275745</v>
       </c>
       <c r="C19">
-        <v>6.14455128584455</v>
+        <v>9.397622524439955</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.37057653069434</v>
+        <v>5.959299151968316</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>3.752738458570976</v>
+        <v>2.137981920944458</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>41.40090333588621</v>
+        <v>43.0549170497439</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.75294637924523</v>
+        <v>13.44874549963949</v>
       </c>
       <c r="L19">
-        <v>10.67833448438659</v>
+        <v>8.060800182438344</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.18573507568108</v>
+        <v>15.41512067709647</v>
       </c>
       <c r="C20">
-        <v>6.218296323442988</v>
+        <v>9.598188701533658</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.367888566188633</v>
+        <v>5.996968673517817</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.751600559596782</v>
+        <v>2.134177541070434</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.55674651787275</v>
+        <v>43.58320368539669</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.78368430716847</v>
+        <v>13.73650804842178</v>
       </c>
       <c r="L20">
-        <v>10.68572878508814</v>
+        <v>8.146415150235534</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.31587620815546</v>
+        <v>16.46424085753355</v>
       </c>
       <c r="C21">
-        <v>6.461237072574042</v>
+        <v>10.25502057896152</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.360710400173888</v>
+        <v>6.127288385492474</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.747893257461301</v>
+        <v>2.12145058247456</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>42.07886179208201</v>
+        <v>45.34700064886523</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.89132259025092</v>
+        <v>14.67831841955173</v>
       </c>
       <c r="L21">
-        <v>10.71281058396129</v>
+        <v>8.436227817706259</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.40492516992808</v>
+        <v>17.13165502701072</v>
       </c>
       <c r="C22">
-        <v>6.6161784436833</v>
+        <v>10.67218525300203</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.357397917805462</v>
+        <v>6.215297264213723</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.745556228615867</v>
+        <v>2.113154290824835</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>42.4186803629344</v>
+        <v>46.49161916342522</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.96483261377907</v>
+        <v>15.27598025475321</v>
       </c>
       <c r="L22">
-        <v>10.7321640553817</v>
+        <v>8.627236442546449</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.35704074742867</v>
+        <v>16.77706365544273</v>
       </c>
       <c r="C23">
-        <v>6.533848221479742</v>
+        <v>10.45060494196091</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.359039841179024</v>
+        <v>6.168062686089024</v>
       </c>
       <c r="F23">
-        <v>21.82633154475857</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.746795713927697</v>
+        <v>2.117581548317045</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>42.23746127293469</v>
+        <v>45.88143549554264</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.92531550985955</v>
+        <v>14.95857788090969</v>
       </c>
       <c r="L23">
-        <v>10.72168435326223</v>
+        <v>8.525144105817921</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.1836771976545</v>
+        <v>15.3976550700753</v>
       </c>
       <c r="C24">
-        <v>6.214264147741597</v>
+        <v>9.58724010044396</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.368029200071472</v>
+        <v>5.994885996424946</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.751662610437308</v>
+        <v>2.134386204492294</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.54819322138109</v>
+        <v>43.55423488082715</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.78197969147306</v>
+        <v>13.72080158038284</v>
       </c>
       <c r="L24">
-        <v>10.68531427225942</v>
+        <v>8.141705377385135</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.01460658609288</v>
+        <v>14.06483738933138</v>
       </c>
       <c r="C25">
-        <v>5.854659798170069</v>
+        <v>8.600278845673579</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.383659015600575</v>
+        <v>5.820047326154413</v>
       </c>
       <c r="F25">
-        <v>18.34778573295691</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.757284189093042</v>
+        <v>2.152727416271926</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.8005717363847</v>
+        <v>41.00846199679145</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.64151196931344</v>
+        <v>12.50299144488894</v>
       </c>
       <c r="L25">
-        <v>10.65327137114973</v>
+        <v>7.735145895944654</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.08152256365115</v>
+        <v>12.26554995535865</v>
       </c>
       <c r="C2">
-        <v>7.821998250903311</v>
+        <v>8.005280953391274</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.7014049336456</v>
+        <v>15.96768017088534</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.166537068521525</v>
+        <v>17.18297080475969</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.595712189350223</v>
       </c>
       <c r="I2">
-        <v>39.10489498678824</v>
+        <v>2.609873702776291</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.215401964168757</v>
       </c>
       <c r="K2">
-        <v>11.70835498927051</v>
+        <v>12.71084441122464</v>
       </c>
       <c r="L2">
-        <v>7.442373917053324</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.37893824858124</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.0685884268937</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.61610914793563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.4004585917742</v>
+        <v>11.55449784703674</v>
       </c>
       <c r="C3">
-        <v>7.283267100584856</v>
+        <v>7.722393417223736</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.627223517746201</v>
+        <v>15.11871857941534</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.176138405621176</v>
+        <v>17.32726371002474</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.706365114397468</v>
       </c>
       <c r="I3">
-        <v>37.79883331727865</v>
+        <v>2.725691041050661</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.306604623538062</v>
       </c>
       <c r="K3">
-        <v>11.1624965466881</v>
+        <v>12.90851474975694</v>
       </c>
       <c r="L3">
-        <v>7.248526376704326</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.84969171124618</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.27141682153878</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.76339519353685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.97619111535945</v>
+        <v>11.09279860661329</v>
       </c>
       <c r="C4">
-        <v>6.961414530561036</v>
+        <v>7.545655432887736</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.584723230581337</v>
+        <v>14.57185639885017</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.182168544782829</v>
+        <v>17.42699507014935</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.822141085434193</v>
       </c>
       <c r="I4">
-        <v>36.99013653337705</v>
+        <v>2.800240299532842</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.364719997965972</v>
       </c>
       <c r="K4">
-        <v>10.8246475025702</v>
+        <v>13.0329970546165</v>
       </c>
       <c r="L4">
-        <v>7.131954581450585</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.51083874995472</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.75718426677022</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.85858328900576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.8019869998857</v>
+        <v>10.89591026846375</v>
       </c>
       <c r="C5">
-        <v>6.82731051115831</v>
+        <v>7.480108493234475</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.568166895143113</v>
+        <v>14.3415133450321</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.184661872755946</v>
+        <v>17.45938316931813</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.870507972983315</v>
       </c>
       <c r="I5">
-        <v>36.65909400579704</v>
+        <v>2.834457424786159</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.387292333247157</v>
       </c>
       <c r="K5">
-        <v>10.6864676444641</v>
+        <v>13.08103230028454</v>
       </c>
       <c r="L5">
-        <v>7.085100661506756</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.37091913709728</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.54242471324009</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.89434156884456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.77298861252841</v>
+        <v>10.85979295728414</v>
       </c>
       <c r="C6">
-        <v>6.804866245727441</v>
+        <v>7.477999645363107</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.565463685753942</v>
+        <v>14.30144121865881</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.18507812020068</v>
+        <v>17.45159518688462</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.878767277931257</v>
       </c>
       <c r="I6">
-        <v>36.6040412820275</v>
+        <v>2.84401921732768</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.38907292994238</v>
       </c>
       <c r="K6">
-        <v>10.6634981820547</v>
+        <v>13.08481936019627</v>
       </c>
       <c r="L6">
-        <v>7.077360875231596</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.34937997510514</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.50751510389138</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.89522880440533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.97384672535347</v>
+        <v>11.08201736343675</v>
       </c>
       <c r="C7">
-        <v>6.959617820117709</v>
+        <v>7.568614951828042</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.584496862370162</v>
+        <v>14.56491602605412</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.182202022277588</v>
+        <v>17.39100416760733</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.823227335511705</v>
       </c>
       <c r="I7">
-        <v>36.98567771841054</v>
+        <v>2.810807998890177</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.359575289316556</v>
       </c>
       <c r="K7">
-        <v>10.82278575013948</v>
+        <v>13.02208611476735</v>
       </c>
       <c r="L7">
-        <v>7.131320015562366</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.51408137512865</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.75729741422725</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.84508373412752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.84807425240364</v>
+        <v>12.01559131980762</v>
       </c>
       <c r="C8">
-        <v>7.632000981578781</v>
+        <v>7.938926238395927</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.675192857933162</v>
+        <v>15.67562706152773</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.169820916023684</v>
+        <v>17.18209319997681</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.586922382612156</v>
       </c>
       <c r="I8">
-        <v>38.65608571332513</v>
+        <v>2.662007154206801</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.239256220909912</v>
       </c>
       <c r="K8">
-        <v>11.5207956170046</v>
+        <v>12.76317485696729</v>
       </c>
       <c r="L8">
-        <v>7.375046016384861</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.20589448266126</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.80259233387746</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.64742453431627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.50673763617009</v>
+        <v>13.65818787440186</v>
       </c>
       <c r="C9">
-        <v>8.940521142564936</v>
+        <v>8.598137436817947</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.877364080639446</v>
+        <v>17.65246447797614</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.146509231884937</v>
+        <v>16.93304112537858</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.956236928412513</v>
       </c>
       <c r="I9">
-        <v>41.87072291766145</v>
+        <v>2.573636160585242</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.030029969087304</v>
       </c>
       <c r="K9">
-        <v>12.86226090160908</v>
+        <v>12.30052599366619</v>
       </c>
       <c r="L9">
-        <v>7.871123690029068</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.43966796123079</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.64752384429227</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.3242359008807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.77834291565869</v>
+        <v>14.7723239530033</v>
       </c>
       <c r="C10">
-        <v>9.825770338027084</v>
+        <v>9.076859010842323</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.040937182828302</v>
+        <v>18.4193923747297</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.129814348828542</v>
+        <v>16.61937028504802</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.227576461772513</v>
       </c>
       <c r="I10">
-        <v>44.1886658201674</v>
+        <v>2.760680248152976</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.858928576643548</v>
       </c>
       <c r="K10">
-        <v>14.06293337203276</v>
+        <v>11.92804869254925</v>
       </c>
       <c r="L10">
-        <v>8.24523641042439</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.29645663406142</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.61297424152905</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.03839640461683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.39733848236678</v>
+        <v>15.54431354195431</v>
       </c>
       <c r="C11">
-        <v>10.21317755446965</v>
+        <v>9.346762680495878</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.118679390854193</v>
+        <v>14.10273302528923</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.122273590910335</v>
+        <v>14.91295524966372</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.976541988201208</v>
       </c>
       <c r="I11">
-        <v>45.2331892231201</v>
+        <v>2.822254645917777</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.562808663847319</v>
       </c>
       <c r="K11">
-        <v>14.61834885833782</v>
+        <v>11.41878174215116</v>
       </c>
       <c r="L11">
-        <v>8.417355376109221</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.86892153800103</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.76117658602014</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.32540213922979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.62859478621548</v>
+        <v>15.98454734631438</v>
       </c>
       <c r="C12">
-        <v>10.35779171037771</v>
+        <v>9.447972200121487</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.148604582086283</v>
+        <v>10.51699216791528</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.119422110419444</v>
+        <v>13.65461569985396</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.185777154557625</v>
       </c>
       <c r="I12">
-        <v>45.62732475589614</v>
+        <v>2.834340599700228</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.36864173155891</v>
       </c>
       <c r="K12">
-        <v>14.82559356691701</v>
+        <v>11.13179136957821</v>
       </c>
       <c r="L12">
-        <v>8.482806594748853</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.17571284563315</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.98588477015866</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.83679223176733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.57892709661632</v>
+        <v>16.19966183828029</v>
       </c>
       <c r="C13">
-        <v>10.32673745172555</v>
+        <v>9.458746740027966</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.1421379098334</v>
+        <v>7.530384452198382</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.120036111616279</v>
+        <v>12.64190132184457</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.492911303686616</v>
       </c>
       <c r="I13">
-        <v>45.54250202870632</v>
+        <v>2.814238486779137</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.234297312664271</v>
       </c>
       <c r="K13">
-        <v>14.78109410068021</v>
+        <v>10.98325765862916</v>
       </c>
       <c r="L13">
-        <v>8.468698307083491</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.31026359853513</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.12156520278105</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.47770073329906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.41642625423484</v>
+        <v>16.24968822564116</v>
       </c>
       <c r="C14">
-        <v>10.22511622549105</v>
+        <v>9.432321212880446</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.121131567975947</v>
+        <v>6.263491672616032</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.122038939644985</v>
+        <v>12.07935806394414</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.442410260213811</v>
       </c>
       <c r="I14">
-        <v>45.26564276920868</v>
+        <v>2.787247435130241</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.169323427537644</v>
       </c>
       <c r="K14">
-        <v>14.63545980124171</v>
+        <v>10.948412208727</v>
       </c>
       <c r="L14">
-        <v>8.42273459704529</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.32956476785474</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.892534636667133</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.29356297338356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.31648464250263</v>
+        <v>16.21085771954016</v>
       </c>
       <c r="C15">
-        <v>10.16260180589976</v>
+        <v>9.41457442263601</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.108328101282278</v>
+        <v>6.135619646020105</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>2.123266138726843</v>
+        <v>11.98313083838051</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.681215244263019</v>
       </c>
       <c r="I15">
-        <v>45.09587745146264</v>
+        <v>2.774924877884244</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.163700747843059</v>
       </c>
       <c r="K15">
-        <v>14.54585830854209</v>
+        <v>10.96197563211897</v>
       </c>
       <c r="L15">
-        <v>8.394616146981392</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.29859701724649</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.57652528395565</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.26991152004032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.73744253984073</v>
+        <v>15.72585048323179</v>
       </c>
       <c r="C16">
-        <v>9.800153779351799</v>
+        <v>9.225742826972235</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.035924116762748</v>
+        <v>6.170143462922741</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.13030793161226</v>
+        <v>12.3376406774799</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.462352452311314</v>
       </c>
       <c r="I16">
-        <v>44.1202049006933</v>
+        <v>2.701745571679775</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.262174884560468</v>
       </c>
       <c r="K16">
-        <v>14.02619630039288</v>
+        <v>11.14369073435268</v>
       </c>
       <c r="L16">
-        <v>8.234026332510792</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.92921071764424</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.387029361952157</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.4660359894617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.37647300740612</v>
+        <v>15.31653539599376</v>
       </c>
       <c r="C17">
-        <v>9.573961096491431</v>
+        <v>9.094231096119271</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.992364077944559</v>
+        <v>6.658291618084789</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>2.134639128662788</v>
+        <v>12.87955405210891</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.708129618722203</v>
       </c>
       <c r="I17">
-        <v>43.51912004001936</v>
+        <v>2.65992273357222</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.370558410623571</v>
       </c>
       <c r="K17">
-        <v>13.70175167921028</v>
+        <v>11.29771490637595</v>
       </c>
       <c r="L17">
-        <v>8.135998680618837</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.62970794392967</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.908151423121115</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.70714578414452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.16998735400624</v>
+        <v>14.93940990715992</v>
       </c>
       <c r="C18">
-        <v>9.442413892561614</v>
+        <v>8.981687690696134</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.967622588061871</v>
+        <v>8.584681328928385</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.137135630217723</v>
+        <v>13.73410239649455</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.426876812657049</v>
       </c>
       <c r="I18">
-        <v>43.17245342229913</v>
+        <v>2.638160410339302</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.510186266046446</v>
       </c>
       <c r="K18">
-        <v>13.51301678955205</v>
+        <v>11.47536393179659</v>
       </c>
       <c r="L18">
-        <v>8.079797456179506</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.35844716372456</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.27431424663217</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.04534410732161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.11028444275745</v>
+        <v>14.61127923041765</v>
       </c>
       <c r="C19">
-        <v>9.397622524439955</v>
+        <v>8.939377259282532</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.959299151968316</v>
+        <v>12.0671330185817</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.137981920944458</v>
+        <v>14.82509189137678</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.068734186491138</v>
       </c>
       <c r="I19">
-        <v>43.0549170497439</v>
+        <v>2.647356443559084</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.66917253319274</v>
       </c>
       <c r="K19">
-        <v>13.44874549963949</v>
+        <v>11.6871425107673</v>
       </c>
       <c r="L19">
-        <v>8.060800182438344</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.14480212123927</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.1958808221708</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.45382809878822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.41512067709647</v>
+        <v>14.47009902005587</v>
       </c>
       <c r="C20">
-        <v>9.598188701533658</v>
+        <v>9.018771000279575</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.996968673517817</v>
+        <v>18.18779353282082</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.134177541070434</v>
+        <v>16.57672641164323</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.154100088527408</v>
       </c>
       <c r="I20">
-        <v>43.58320368539669</v>
+        <v>2.724027796486826</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.885529124180592</v>
       </c>
       <c r="K20">
-        <v>13.73650804842178</v>
+        <v>11.98835098918042</v>
       </c>
       <c r="L20">
-        <v>8.146415150235534</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.09150974770647</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.36083819934083</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.06562883776525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.46424085753355</v>
+        <v>15.23612897778714</v>
       </c>
       <c r="C21">
-        <v>10.25502057896152</v>
+        <v>9.360058183174907</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.127288385492474</v>
+        <v>19.59914023312145</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.12145058247456</v>
+        <v>16.66451104221647</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.388998414070174</v>
       </c>
       <c r="I21">
-        <v>45.34700064886523</v>
+        <v>2.868133890187083</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.800944991048604</v>
       </c>
       <c r="K21">
-        <v>14.67831841955173</v>
+        <v>11.77913917759409</v>
       </c>
       <c r="L21">
-        <v>8.436227817706259</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.68694530059369</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.47389005596758</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.9701336684373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.13165502701072</v>
+        <v>15.73964365997671</v>
       </c>
       <c r="C22">
-        <v>10.67218525300203</v>
+        <v>9.55457103508687</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.215297264213723</v>
+        <v>20.21436853011807</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.113154290824835</v>
+        <v>16.69224449670005</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.528742647189527</v>
       </c>
       <c r="I22">
-        <v>46.49161916342522</v>
+        <v>2.954506751038192</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.741759816925141</v>
       </c>
       <c r="K22">
-        <v>15.27598025475321</v>
+        <v>11.63886617628138</v>
       </c>
       <c r="L22">
-        <v>8.627236442546449</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.06791923124739</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.03772885738339</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11.89710111656235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.77706365544273</v>
+        <v>15.48011813733872</v>
       </c>
       <c r="C23">
-        <v>10.45060494196091</v>
+        <v>9.427027005395169</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.168062686089024</v>
+        <v>19.89151603789853</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.117581548317045</v>
+        <v>16.71847665983784</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.454803573804491</v>
       </c>
       <c r="I23">
-        <v>45.88143549554264</v>
+        <v>2.903941824917338</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.779431588384774</v>
       </c>
       <c r="K23">
-        <v>14.95857788090969</v>
+        <v>11.72684909373532</v>
       </c>
       <c r="L23">
-        <v>8.525144105817921</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.86092586319021</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.73633931322606</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11.9519723638335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.3976550700753</v>
+        <v>14.44062456647379</v>
       </c>
       <c r="C24">
-        <v>9.58724010044396</v>
+        <v>8.972930775227347</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.994885996424946</v>
+        <v>18.61478105329472</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.134386204492294</v>
+        <v>16.78372013063018</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.167994947544661</v>
       </c>
       <c r="I24">
-        <v>43.55423488082715</v>
+        <v>2.716620584534519</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.916748902677001</v>
       </c>
       <c r="K24">
-        <v>13.72080158038284</v>
+        <v>12.04488223196588</v>
       </c>
       <c r="L24">
-        <v>8.141705377385135</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.0559248650798</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.55198627144837</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.14612863787079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.06483738933138</v>
+        <v>13.22312922894369</v>
       </c>
       <c r="C25">
-        <v>8.600278845673579</v>
+        <v>8.462724100714013</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.820047326154413</v>
+        <v>17.13459717793587</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.152727416271926</v>
+        <v>16.92345480893854</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.844885573756735</v>
       </c>
       <c r="I25">
-        <v>41.00846199679145</v>
+        <v>2.509054869928762</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.075077669884084</v>
       </c>
       <c r="K25">
-        <v>12.50299144488894</v>
+        <v>12.4025340220621</v>
       </c>
       <c r="L25">
-        <v>7.735145895944654</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.12698443571095</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.17481242122758</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.38201383515938</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.26554995535865</v>
+        <v>12.29670151599562</v>
       </c>
       <c r="C2">
-        <v>8.005280953391274</v>
+        <v>7.872860380841722</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.96768017088534</v>
+        <v>15.98193094299634</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>17.18297080475969</v>
+        <v>16.08921116926959</v>
       </c>
       <c r="H2">
-        <v>1.595712189350223</v>
+        <v>1.620682711724506</v>
       </c>
       <c r="I2">
-        <v>2.609873702776291</v>
+        <v>2.525034822565207</v>
       </c>
       <c r="J2">
-        <v>8.215401964168757</v>
+        <v>8.550440648842907</v>
       </c>
       <c r="K2">
-        <v>12.71084441122464</v>
+        <v>12.43270823139485</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.73391691173981</v>
       </c>
       <c r="M2">
-        <v>11.37893824858124</v>
+        <v>7.61043584947616</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.0685884268937</v>
+        <v>11.40674604074447</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.61610914793563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.10293041048895</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.43252731447097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.55449784703674</v>
+        <v>11.61167059728986</v>
       </c>
       <c r="C3">
-        <v>7.722393417223736</v>
+        <v>7.515848574435095</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.11871857941534</v>
+        <v>15.14826104606299</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>17.32726371002474</v>
+        <v>16.30589522533157</v>
       </c>
       <c r="H3">
-        <v>1.706365114397468</v>
+        <v>1.675479178557053</v>
       </c>
       <c r="I3">
-        <v>2.725691041050661</v>
+        <v>2.627216553690582</v>
       </c>
       <c r="J3">
-        <v>8.306604623538062</v>
+        <v>8.615315688093435</v>
       </c>
       <c r="K3">
-        <v>12.90851474975694</v>
+        <v>12.62893154706907</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.91468550900206</v>
       </c>
       <c r="M3">
-        <v>10.84969171124618</v>
+        <v>7.773335779187931</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.27141682153878</v>
+        <v>10.86988612457365</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.76339519353685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.30290095007019</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.58968697080676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.09279860661329</v>
+        <v>11.16729674743914</v>
       </c>
       <c r="C4">
-        <v>7.545655432887736</v>
+        <v>7.292054880013805</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.57185639885017</v>
+        <v>14.61163254635005</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>17.42699507014935</v>
+        <v>16.4500018931153</v>
       </c>
       <c r="H4">
-        <v>1.822141085434193</v>
+        <v>1.78790523923135</v>
       </c>
       <c r="I4">
-        <v>2.800240299532842</v>
+        <v>2.693336198567926</v>
       </c>
       <c r="J4">
-        <v>8.364719997965972</v>
+        <v>8.656152118732676</v>
       </c>
       <c r="K4">
-        <v>13.0329970546165</v>
+        <v>12.75184127798463</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.03215335367539</v>
       </c>
       <c r="M4">
-        <v>10.51083874995472</v>
+        <v>7.887677937708458</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.75718426677022</v>
+        <v>10.52632836455838</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.85858328900576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.78685411000479</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.6899576857298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.89591026846375</v>
+        <v>10.9778992191454</v>
       </c>
       <c r="C5">
-        <v>7.480108493234475</v>
+        <v>7.207253348276656</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.3415133450321</v>
+        <v>14.38571307021522</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>17.45938316931813</v>
+        <v>16.50048367630126</v>
       </c>
       <c r="H5">
-        <v>1.870507972983315</v>
+        <v>1.834877630684666</v>
       </c>
       <c r="I5">
-        <v>2.834457424786159</v>
+        <v>2.724633988156508</v>
       </c>
       <c r="J5">
-        <v>8.387292333247157</v>
+        <v>8.671427236654944</v>
       </c>
       <c r="K5">
-        <v>13.08103230028454</v>
+        <v>12.79918874785218</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.07773142061654</v>
       </c>
       <c r="M5">
-        <v>10.37091913709728</v>
+        <v>7.936850452476385</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.54242471324009</v>
+        <v>10.38445766415582</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.89434156884456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.57131907566565</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.72766398559559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.85979295728414</v>
+        <v>10.94314667123446</v>
       </c>
       <c r="C6">
-        <v>7.477999645363107</v>
+        <v>7.202249014687057</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.30144121865881</v>
+        <v>14.34643149523614</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>17.45159518688462</v>
+        <v>16.49577045874837</v>
       </c>
       <c r="H6">
-        <v>1.878767277931257</v>
+        <v>1.842898664163907</v>
       </c>
       <c r="I6">
-        <v>2.84401921732768</v>
+        <v>2.734410794541371</v>
       </c>
       <c r="J6">
-        <v>8.38907292994238</v>
+        <v>8.672002940729993</v>
       </c>
       <c r="K6">
-        <v>13.08481936019627</v>
+        <v>12.80300013847644</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.08065036339105</v>
       </c>
       <c r="M6">
-        <v>10.34937997510514</v>
+        <v>7.944077824876225</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.50751510389138</v>
+        <v>10.36254935793379</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.89522880440533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.53624753699359</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.72900031932116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.08201736343675</v>
+        <v>11.15767152490888</v>
       </c>
       <c r="C7">
-        <v>7.568614951828042</v>
+        <v>7.311301301967889</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.56491602605412</v>
+        <v>14.60467594808765</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>17.39100416760733</v>
+        <v>16.46724937849434</v>
       </c>
       <c r="H7">
-        <v>1.823227335511705</v>
+        <v>1.789300324973109</v>
       </c>
       <c r="I7">
-        <v>2.810807998890177</v>
+        <v>2.706174969066188</v>
       </c>
       <c r="J7">
-        <v>8.359575289316556</v>
+        <v>8.628800744428638</v>
       </c>
       <c r="K7">
-        <v>13.02208611476735</v>
+        <v>12.73717781671295</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.01556239328747</v>
       </c>
       <c r="M7">
-        <v>10.51408137512865</v>
+        <v>7.883286772251388</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.75729741422725</v>
+        <v>10.52817132954851</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.84508373412752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.78632740310268</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.66928824538066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.01559131980762</v>
+        <v>12.05827375399828</v>
       </c>
       <c r="C8">
-        <v>7.938926238395927</v>
+        <v>7.768691131122801</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.67562706152773</v>
+        <v>15.69467363517613</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>17.18209319997681</v>
+        <v>16.29269992435774</v>
       </c>
       <c r="H8">
-        <v>1.586922382612156</v>
+        <v>1.56057257944567</v>
       </c>
       <c r="I8">
-        <v>2.662007154206801</v>
+        <v>2.576266303913313</v>
       </c>
       <c r="J8">
-        <v>8.239256220909912</v>
+        <v>8.494576694988044</v>
       </c>
       <c r="K8">
-        <v>12.76317485696729</v>
+        <v>12.47210861392174</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.76734424603493</v>
       </c>
       <c r="M8">
-        <v>11.20589448266126</v>
+        <v>7.649638694327017</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.80259233387746</v>
+        <v>11.22708737142957</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.64742453431627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.83417616950105</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.44312132815999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.65818787440186</v>
+        <v>13.64314489646398</v>
       </c>
       <c r="C9">
-        <v>8.598137436817947</v>
+        <v>8.599216972381074</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.65246447797614</v>
+        <v>17.63778491362703</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>16.93304112537858</v>
+        <v>15.91751515708159</v>
       </c>
       <c r="H9">
-        <v>1.956236928412513</v>
+        <v>1.969399148308987</v>
       </c>
       <c r="I9">
-        <v>2.573636160585242</v>
+        <v>2.633751735481223</v>
       </c>
       <c r="J9">
-        <v>8.030029969087304</v>
+        <v>8.32515884527067</v>
       </c>
       <c r="K9">
-        <v>12.30052599366619</v>
+        <v>12.00535753531065</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.36841589034274</v>
       </c>
       <c r="M9">
-        <v>12.43966796123079</v>
+        <v>7.324031392617917</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.64752384429227</v>
+        <v>12.47891459698506</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.3242359008807</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.68556003158605</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.08208463013318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.7723239530033</v>
+        <v>14.72726957264712</v>
       </c>
       <c r="C10">
-        <v>9.076859010842323</v>
+        <v>9.163963170288417</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.4193923747297</v>
+        <v>18.38470186967441</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>16.61937028504802</v>
+        <v>15.85563030768138</v>
       </c>
       <c r="H10">
-        <v>2.227576461772513</v>
+        <v>2.230611857344095</v>
       </c>
       <c r="I10">
-        <v>2.760680248152976</v>
+        <v>2.798793991342991</v>
       </c>
       <c r="J10">
-        <v>7.858928576643548</v>
+        <v>8.072319433905941</v>
       </c>
       <c r="K10">
-        <v>11.92804869254925</v>
+        <v>11.61386870634115</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.07057474367236</v>
       </c>
       <c r="M10">
-        <v>13.29645663406142</v>
+        <v>7.105022871819664</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.61297424152905</v>
+        <v>13.34074477357307</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.03839640461683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.65161819938781</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.72880689632422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.54431354195431</v>
+        <v>15.51676545919868</v>
       </c>
       <c r="C11">
-        <v>9.346762680495878</v>
+        <v>9.357276269822455</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.10273302528923</v>
+        <v>14.06934092622664</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>14.91295524966372</v>
+        <v>14.87718252012194</v>
       </c>
       <c r="H11">
-        <v>2.976541988201208</v>
+        <v>2.9749493252232</v>
       </c>
       <c r="I11">
-        <v>2.822254645917777</v>
+        <v>2.852826021974614</v>
       </c>
       <c r="J11">
-        <v>7.562808663847319</v>
+        <v>7.708337292975781</v>
       </c>
       <c r="K11">
-        <v>11.41878174215116</v>
+        <v>11.15264643683164</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.788660898731823</v>
       </c>
       <c r="M11">
-        <v>13.86892153800103</v>
+        <v>6.715480283555936</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.76117658602014</v>
+        <v>13.89039683164429</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.32540213922979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.78758695830781</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.00591982106486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.98454734631438</v>
+        <v>15.97534915972477</v>
       </c>
       <c r="C12">
-        <v>9.447972200121487</v>
+        <v>9.386187922563021</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.51699216791528</v>
+        <v>10.48603117512294</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>13.65461569985396</v>
+        <v>13.90234462575337</v>
       </c>
       <c r="H12">
-        <v>4.185777154557625</v>
+        <v>4.183857586717711</v>
       </c>
       <c r="I12">
-        <v>2.834340599700228</v>
+        <v>2.861952694368546</v>
       </c>
       <c r="J12">
-        <v>7.36864173155891</v>
+        <v>7.58871875655888</v>
       </c>
       <c r="K12">
-        <v>11.13179136957821</v>
+        <v>10.92370169217599</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.675909633611214</v>
       </c>
       <c r="M12">
-        <v>14.17571284563315</v>
+        <v>6.482535706116223</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.98588477015866</v>
+        <v>14.17967157544641</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10.83679223176733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.00351158397933</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.55729740507999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.19966183828029</v>
+        <v>16.20909234229442</v>
       </c>
       <c r="C13">
-        <v>9.458746740027966</v>
+        <v>9.332965011917485</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.530384452198382</v>
+        <v>7.504729164771032</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>12.64190132184457</v>
+        <v>12.71616237104519</v>
       </c>
       <c r="H13">
-        <v>5.492911303686616</v>
+        <v>5.491973792380975</v>
       </c>
       <c r="I13">
-        <v>2.814238486779137</v>
+        <v>2.844421315341017</v>
       </c>
       <c r="J13">
-        <v>7.234297312664271</v>
+        <v>7.564770120401699</v>
       </c>
       <c r="K13">
-        <v>10.98325765862916</v>
+        <v>10.83416245145039</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.643003368919597</v>
       </c>
       <c r="M13">
-        <v>14.31026359853513</v>
+        <v>6.359365675498873</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.12156520278105</v>
+        <v>14.30147333755527</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.47770073329906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.12878435695521</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.27852426999968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.24968822564116</v>
+        <v>16.27253467058066</v>
       </c>
       <c r="C14">
-        <v>9.432321212880446</v>
+        <v>9.264642922078774</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.263491672616032</v>
+        <v>6.245101518291872</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>12.07935806394414</v>
+        <v>11.86144748653972</v>
       </c>
       <c r="H14">
-        <v>6.442410260213811</v>
+        <v>6.442501691666355</v>
       </c>
       <c r="I14">
-        <v>2.787247435130241</v>
+        <v>2.821989928290689</v>
       </c>
       <c r="J14">
-        <v>7.169323427537644</v>
+        <v>7.56558725509954</v>
       </c>
       <c r="K14">
-        <v>10.948412208727</v>
+        <v>10.8308229393079</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.646514901624753</v>
       </c>
       <c r="M14">
-        <v>14.32956476785474</v>
+        <v>6.329856124991583</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.892534636667133</v>
+        <v>14.3136958439109</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.29356297338356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.885236582970977</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.15708557889035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.21085771954016</v>
+        <v>16.23725874417601</v>
       </c>
       <c r="C15">
-        <v>9.41457442263601</v>
+        <v>9.237903518738007</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.135619646020105</v>
+        <v>6.12116153308725</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>11.98313083838051</v>
+        <v>11.63875446275941</v>
       </c>
       <c r="H15">
-        <v>6.681215244263019</v>
+        <v>6.681070452682865</v>
       </c>
       <c r="I15">
-        <v>2.774924877884244</v>
+        <v>2.812504689094522</v>
       </c>
       <c r="J15">
-        <v>7.163700747843059</v>
+        <v>7.57253395165463</v>
       </c>
       <c r="K15">
-        <v>10.96197563211897</v>
+        <v>10.84941354081885</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.653930338325091</v>
       </c>
       <c r="M15">
-        <v>14.29859701724649</v>
+        <v>6.342124413796816</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.57652528395565</v>
+        <v>14.28187822745247</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.26991152004032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.567888329310211</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.15187884974662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.72585048323179</v>
+        <v>15.75513273020649</v>
       </c>
       <c r="C16">
-        <v>9.225742826972235</v>
+        <v>9.057724852793246</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.170143462922741</v>
+        <v>6.174500257549096</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>12.3376406774799</v>
+        <v>11.58860888076197</v>
       </c>
       <c r="H16">
-        <v>6.462352452311314</v>
+        <v>6.46085521006546</v>
       </c>
       <c r="I16">
-        <v>2.701745571679775</v>
+        <v>2.751591078015886</v>
       </c>
       <c r="J16">
-        <v>7.262174884560468</v>
+        <v>7.679660474208971</v>
       </c>
       <c r="K16">
-        <v>11.14369073435268</v>
+        <v>11.01851482238107</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.713475434657934</v>
       </c>
       <c r="M16">
-        <v>13.92921071764424</v>
+        <v>6.506806124643338</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.387029361952157</v>
+        <v>13.92066247316268</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.4660359894617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.378304537676705</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.38259591724204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.31653539599376</v>
+        <v>15.34196104414776</v>
       </c>
       <c r="C17">
-        <v>9.094231096119271</v>
+        <v>8.950006604566717</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.658291618084789</v>
+        <v>6.669900659595769</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>12.87955405210891</v>
+        <v>11.98743612923104</v>
       </c>
       <c r="H17">
-        <v>5.708129618722203</v>
+        <v>5.705561294287476</v>
       </c>
       <c r="I17">
-        <v>2.65992273357222</v>
+        <v>2.716461572553682</v>
       </c>
       <c r="J17">
-        <v>7.370558410623571</v>
+        <v>7.794907070563808</v>
       </c>
       <c r="K17">
-        <v>11.29771490637595</v>
+        <v>11.15659956095932</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.776268710616391</v>
       </c>
       <c r="M17">
-        <v>13.62970794392967</v>
+        <v>6.639467809129881</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.908151423121115</v>
+        <v>13.63001428020793</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.70714578414452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.902500097237802</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.6236561955685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.93940990715992</v>
+        <v>14.95279143952815</v>
       </c>
       <c r="C18">
-        <v>8.981687690696134</v>
+        <v>8.884523305381881</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.584681328928385</v>
+        <v>8.590897805500724</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>13.73410239649455</v>
+        <v>12.75686184216717</v>
       </c>
       <c r="H18">
-        <v>4.426876812657049</v>
+        <v>4.43125206981898</v>
       </c>
       <c r="I18">
-        <v>2.638160410339302</v>
+        <v>2.696383273258264</v>
       </c>
       <c r="J18">
-        <v>7.510186266046446</v>
+        <v>7.92829097852603</v>
       </c>
       <c r="K18">
-        <v>11.47536393179659</v>
+        <v>11.30976596689913</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.867302006844398</v>
       </c>
       <c r="M18">
-        <v>13.35844716372456</v>
+        <v>6.777023318711402</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.27431424663217</v>
+        <v>13.37100080467093</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.04534410732161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.29692882725598</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.93841341932175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.61127923041765</v>
+        <v>14.60665391489682</v>
       </c>
       <c r="C19">
-        <v>8.939377259282532</v>
+        <v>8.907115126449405</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.0671330185817</v>
+        <v>12.06073102520944</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>14.82509189137678</v>
+        <v>13.76938855132863</v>
       </c>
       <c r="H19">
-        <v>3.068734186491138</v>
+        <v>3.075323575007365</v>
       </c>
       <c r="I19">
-        <v>2.647356443559084</v>
+        <v>2.705429588440716</v>
       </c>
       <c r="J19">
-        <v>7.66917253319274</v>
+        <v>8.068777006454214</v>
       </c>
       <c r="K19">
-        <v>11.6871425107673</v>
+        <v>11.48401835295909</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.98558615512958</v>
       </c>
       <c r="M19">
-        <v>13.14480212123927</v>
+        <v>6.928220596918305</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.1958808221708</v>
+        <v>13.17152880960481</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.45382809878822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.22559789526808</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.30368952432187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.47009902005587</v>
+        <v>14.43089788685756</v>
       </c>
       <c r="C20">
-        <v>9.018771000279575</v>
+        <v>9.098662135141881</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.18779353282082</v>
+        <v>18.15869987277066</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>16.57672641164323</v>
+        <v>15.54413262171671</v>
       </c>
       <c r="H20">
-        <v>2.154100088527408</v>
+        <v>2.160717191815207</v>
       </c>
       <c r="I20">
-        <v>2.724027796486826</v>
+        <v>2.772559511900436</v>
       </c>
       <c r="J20">
-        <v>7.885529124180592</v>
+        <v>8.190717149940731</v>
       </c>
       <c r="K20">
-        <v>11.98835098918042</v>
+        <v>11.69757620698488</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.13256695942862</v>
       </c>
       <c r="M20">
-        <v>13.09150974770647</v>
+        <v>7.14232065828787</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.36083819934083</v>
+        <v>13.13760978674413</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.06562883776525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.40064645705897</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.80415616060655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.23612897778714</v>
+        <v>15.18379424266615</v>
       </c>
       <c r="C21">
-        <v>9.360058183174907</v>
+        <v>9.448706408780215</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.59914023312145</v>
+        <v>19.55343986182629</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>16.66451104221647</v>
+        <v>16.93602201931895</v>
       </c>
       <c r="H21">
-        <v>2.388998414070174</v>
+        <v>2.383303251018275</v>
       </c>
       <c r="I21">
-        <v>2.868133890187083</v>
+        <v>2.89307431537421</v>
       </c>
       <c r="J21">
-        <v>7.800944991048604</v>
+        <v>7.754611023770601</v>
       </c>
       <c r="K21">
-        <v>11.77913917759409</v>
+        <v>11.3885087220098</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.9181737656072</v>
       </c>
       <c r="M21">
-        <v>13.68694530059369</v>
+        <v>6.976014688267602</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.47389005596758</v>
+        <v>13.72203836741</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11.9701336684373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.50762728142547</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.4989110551104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.73964365997671</v>
+        <v>15.68162575639567</v>
       </c>
       <c r="C22">
-        <v>9.55457103508687</v>
+        <v>9.639398769257607</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.21436853011807</v>
+        <v>20.15986953773262</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>16.69224449670005</v>
+        <v>17.98121466076931</v>
       </c>
       <c r="H22">
-        <v>2.528742647189527</v>
+        <v>2.515307128946393</v>
       </c>
       <c r="I22">
-        <v>2.954506751038192</v>
+        <v>2.963314561556385</v>
       </c>
       <c r="J22">
-        <v>7.741759816925141</v>
+        <v>7.559140340938016</v>
       </c>
       <c r="K22">
-        <v>11.63886617628138</v>
+        <v>11.1789585943475</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.786185211227775</v>
       </c>
       <c r="M22">
-        <v>14.06791923124739</v>
+        <v>6.865300515994289</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.03772885738339</v>
+        <v>14.09456751150412</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11.89710111656235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.06667295543233</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.27710550242782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.48011813733872</v>
+        <v>15.42306608274891</v>
       </c>
       <c r="C23">
-        <v>9.427027005395169</v>
+        <v>9.522473203850586</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.89151603789853</v>
+        <v>19.84139872554275</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>16.71847665983784</v>
+        <v>17.29636602066212</v>
       </c>
       <c r="H23">
-        <v>2.454803573804491</v>
+        <v>2.445985111075101</v>
       </c>
       <c r="I23">
-        <v>2.903941824917338</v>
+        <v>2.920622398597633</v>
       </c>
       <c r="J23">
-        <v>7.779431588384774</v>
+        <v>7.675858763235567</v>
       </c>
       <c r="K23">
-        <v>11.72684909373532</v>
+        <v>11.31067883505682</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.865953332945239</v>
       </c>
       <c r="M23">
-        <v>13.86092586319021</v>
+        <v>6.945310594100845</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.73633931322606</v>
+        <v>13.89446276616003</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.9519723638335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.76897715530382</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.42949100837718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.44062456647379</v>
+        <v>14.39929413088636</v>
       </c>
       <c r="C24">
-        <v>8.972930775227347</v>
+        <v>9.057988366676732</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>18.61478105329472</v>
+        <v>18.58463983784437</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>16.78372013063018</v>
+        <v>15.73186747922159</v>
       </c>
       <c r="H24">
-        <v>2.167994947544661</v>
+        <v>2.174614137848541</v>
       </c>
       <c r="I24">
-        <v>2.716620584534519</v>
+        <v>2.762928203321644</v>
       </c>
       <c r="J24">
-        <v>7.916748902677001</v>
+        <v>8.220077446020539</v>
       </c>
       <c r="K24">
-        <v>12.04488223196588</v>
+        <v>11.74545594590815</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.16521363357558</v>
       </c>
       <c r="M24">
-        <v>13.0559248650798</v>
+        <v>7.183963796783852</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.55198627144837</v>
+        <v>13.10360880959517</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.14612863787079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.59271440261258</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.87784661327353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.22312922894369</v>
+        <v>13.2220264585573</v>
       </c>
       <c r="C25">
-        <v>8.462724100714013</v>
+        <v>8.426089992874838</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.13459717793587</v>
+        <v>17.12869208550156</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>16.92345480893854</v>
+        <v>15.86359735967013</v>
       </c>
       <c r="H25">
-        <v>1.844885573756735</v>
+        <v>1.861803240000832</v>
       </c>
       <c r="I25">
-        <v>2.509054869928762</v>
+        <v>2.579605233225155</v>
       </c>
       <c r="J25">
-        <v>8.075077669884084</v>
+        <v>8.391048159410206</v>
       </c>
       <c r="K25">
-        <v>12.4025340220621</v>
+        <v>12.1168581268146</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.46016716780164</v>
       </c>
       <c r="M25">
-        <v>12.12698443571095</v>
+        <v>7.38965466815264</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.17481242122758</v>
+        <v>12.16279768936989</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.38201383515938</v>
+        <v>15.2117358325975</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.16327139638991</v>
       </c>
     </row>
   </sheetData>
